--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A9E31-44EC-4D16-B6C1-4B74C7F3076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4832D57-1A4F-4BE1-8B79-68829EBF1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27030" yWindow="2540" windowWidth="23190" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>Pattern Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,14 @@
   </si>
   <si>
     <t>Lane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,56 +352,56 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,40 +688,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" customWidth="1"/>
-    <col min="8" max="16" width="8.6640625" style="17"/>
+    <col min="3" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="8" max="16" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -724,12 +732,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -744,24 +752,24 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="17">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17">
-        <v>1</v>
-      </c>
-      <c r="J3" s="17">
-        <v>2</v>
-      </c>
-      <c r="K3" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -773,18 +781,18 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="17">
-        <v>5</v>
-      </c>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="J4" s="17">
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -799,24 +807,24 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="17">
-        <v>2</v>
-      </c>
-      <c r="K5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -828,17 +836,17 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="17">
-        <v>5</v>
-      </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="H6" s="6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -847,21 +855,21 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="J7" s="17">
-        <v>2</v>
-      </c>
-      <c r="K7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -876,21 +884,21 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="17">
-        <v>5</v>
-      </c>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -902,11 +910,11 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -917,21 +925,21 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="17">
-        <v>3</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
         <v>4</v>
       </c>
-      <c r="K10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -946,21 +954,21 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="17">
-        <v>3</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,21 +980,21 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="H12" s="17">
-        <v>3</v>
-      </c>
-      <c r="I12" s="17">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <v>4</v>
       </c>
-      <c r="K12" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1001,21 +1009,21 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="17">
-        <v>3</v>
-      </c>
-      <c r="I13" s="17">
-        <v>1</v>
-      </c>
-      <c r="J13" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1027,20 +1035,20 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="H14" s="17">
-        <v>3</v>
-      </c>
-      <c r="I14" s="17">
-        <v>1</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="H14" s="6">
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
         <v>4</v>
       </c>
-      <c r="K14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1049,18 +1057,18 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="17">
-        <v>3</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1075,15 +1083,15 @@
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1095,20 +1103,20 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="H17" s="17">
-        <v>5</v>
-      </c>
-      <c r="I17" s="17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1117,50 +1125,50 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="H18" s="17">
-        <v>5</v>
-      </c>
-      <c r="I18" s="17">
-        <v>3</v>
-      </c>
-      <c r="J18" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="H19" s="17">
-        <v>5</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="J19" s="17">
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="H20" s="17">
-        <v>5</v>
-      </c>
-      <c r="I20" s="17">
-        <v>3</v>
-      </c>
-      <c r="J20" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
@@ -1173,20 +1181,20 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="H21" s="17">
-        <v>5</v>
-      </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -1199,61 +1207,98 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="H22" s="17">
-        <v>5</v>
-      </c>
-      <c r="I22" s="17">
-        <v>3</v>
-      </c>
-      <c r="J22" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="16" t="s">
+      <c r="H22" s="6">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3</v>
+      </c>
+      <c r="J22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="19" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="H26" s="6">
+        <v>4</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H27" s="6">
+        <v>4</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="9">
         <v>0</v>
       </c>
       <c r="C29" s="1"/>
@@ -1261,7 +1306,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -1271,17 +1316,17 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>25</v>
       </c>
@@ -1295,7 +1340,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
@@ -1309,17 +1354,17 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
@@ -1335,11 +1380,11 @@
       <c r="E35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F35" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -1353,17 +1398,17 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>25</v>
       </c>
@@ -1377,7 +1422,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -1393,6 +1438,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1409,11 +1459,6 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1423,239 +1468,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="6" max="11" width="8.6640625" style="17"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="6" max="11" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="17">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="17">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17">
-        <v>3</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="F4" s="17">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17">
-        <v>3</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="F6" s="17">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>2</v>
-      </c>
-      <c r="H8" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="10">
         <v>0</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="F9" s="17">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="17">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17">
-        <v>3</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="F10" s="17">
-        <v>2</v>
-      </c>
-      <c r="G10" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="F12" s="17">
-        <v>2</v>
-      </c>
-      <c r="G12" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="17">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17">
-        <v>3</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="F14" s="17">
-        <v>2</v>
-      </c>
-      <c r="G14" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17">
-        <v>2</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>2</v>
-      </c>
-      <c r="H15" s="17">
-        <v>3</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4832D57-1A4F-4BE1-8B79-68829EBF1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B26FF2-92EF-4BF9-A35F-2FE6B79B0784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12900" yWindow="3240" windowWidth="23190" windowHeight="18160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
   <si>
     <t>Pattern Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,11 +176,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stage 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage 2</t>
+    <t>Repeat Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,6 +358,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,21 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,39 +689,39 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="8" max="16" width="8.625" style="6"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" customWidth="1"/>
+    <col min="8" max="16" width="8.58203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -736,8 +736,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -768,8 +768,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,17 +782,17 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -811,20 +811,20 @@
         <v>5</v>
       </c>
       <c r="H5" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -837,16 +837,16 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="H6" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -856,20 +856,20 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -888,17 +888,17 @@
         <v>5</v>
       </c>
       <c r="H8" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -926,20 +926,20 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="H10" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
       <c r="J10" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -967,8 +967,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,8 +993,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1022,8 +1022,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1036,19 +1036,19 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="H14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1067,8 +1067,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1090,8 +1090,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1104,19 +1104,19 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="H17" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
       </c>
       <c r="J17" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1126,16 +1126,16 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H19" s="6">
         <v>5</v>
       </c>
@@ -1149,27 +1149,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="H20" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1182,20 +1182,20 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
       </c>
       <c r="J21" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1208,29 +1208,29 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="H22" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H23" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="H24" s="6">
         <v>1</v>
       </c>
@@ -1238,34 +1238,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
       <c r="H25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="H26" s="6">
         <v>4</v>
       </c>
@@ -1273,9 +1273,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H27" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="6">
         <v>1</v>
@@ -1284,18 +1284,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="H28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1305,29 +1308,45 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="H30" s="6">
+        <v>5</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1340,8 +1359,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="20"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1354,18 +1373,18 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1384,8 +1403,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="20"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1398,18 +1417,18 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1422,8 +1441,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="20"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1438,11 +1457,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1459,6 +1473,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1468,259 +1487,431 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="6" max="11" width="8.625" style="6"/>
+    <col min="1" max="1" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="6" max="11" width="8.58203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="D3" s="10"/>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
       <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="11"/>
       <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
       <c r="D5" s="6"/>
-      <c r="F5" s="6">
-        <v>2</v>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="11"/>
       <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="F6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
       <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="F8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
       <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="F11" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
       <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="F12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
       <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
       <c r="D13" s="6"/>
-      <c r="F13" s="6">
-        <v>2</v>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
       <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="F14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
       <c r="B15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="F15" s="6">
-        <v>2</v>
-      </c>
-      <c r="G15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F16" s="6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="6">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F19" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F39" s="6">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B26FF2-92EF-4BF9-A35F-2FE6B79B0784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595D6A6-8199-47F6-9074-EBFF893E6D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="3240" windowWidth="23190" windowHeight="18160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32720" yWindow="2390" windowWidth="23190" windowHeight="18160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
     <sheet name="Cycle" sheetId="2" r:id="rId2"/>
+    <sheet name="Stage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>Pattern Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +182,109 @@
   </si>
   <si>
     <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy Spawn Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy Info 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elite Enemy 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy Info 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elite Enemy 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy Info 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elite Enemy 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition id</t>
+  </si>
+  <si>
+    <t>condition id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle Upgrade Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성된 적 유닛 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득한 매쓰코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결한 수학 문제 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 성의 체력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시간(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle Level 2 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle Level 3 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle Level 2 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle Level 3 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle Level 2 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle Level 3 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,6 +464,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -404,6 +514,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,25 +823,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
@@ -737,7 +859,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -769,7 +891,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,7 +914,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -824,7 +946,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -869,7 +991,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -898,7 +1020,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -939,7 +1061,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -968,7 +1090,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -994,7 +1116,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1023,7 +1145,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1190,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1091,7 +1213,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1150,14 +1272,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="H20" s="6">
         <v>3</v>
       </c>
@@ -1169,7 +1291,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1195,7 +1317,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1223,14 +1345,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="H24" s="6">
         <v>1</v>
       </c>
@@ -1239,14 +1361,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="H25" s="6">
         <v>3</v>
       </c>
@@ -1258,14 +1380,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
       <c r="H26" s="6">
         <v>4</v>
       </c>
@@ -1285,20 +1407,20 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
       <c r="H28" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1313,7 +1435,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="20"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,17 +1458,17 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1360,7 +1482,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="20"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1374,17 +1496,17 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1404,7 +1526,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="20"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1418,17 +1540,17 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1442,7 +1564,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="20"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1489,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G39"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1501,20 +1623,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
@@ -1914,4 +2036,1062 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
+  <dimension ref="A1:S49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.4140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" style="12" customWidth="1"/>
+    <col min="3" max="7" width="8.6640625" style="12"/>
+    <col min="8" max="19" width="8.6640625" style="6"/>
+    <col min="20" max="16384" width="8.6640625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="H1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="6">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="10">
+        <v>9</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="6">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>5</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H15" s="10">
+        <v>9</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>10</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>0</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>4</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>5</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="H19" s="6">
+        <v>9</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10">
+        <v>5</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="H23" s="10">
+        <v>9</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H24" s="10">
+        <v>3</v>
+      </c>
+      <c r="I24" s="10">
+        <v>90</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H26" s="6">
+        <v>2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
+        <v>5</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H27" s="6">
+        <v>9</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H28" s="6">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <v>4</v>
+      </c>
+      <c r="M30" s="10">
+        <v>1</v>
+      </c>
+      <c r="N30" s="10">
+        <v>6</v>
+      </c>
+      <c r="O30" s="10">
+        <v>1</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H31" s="10">
+        <v>9</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H32" s="10">
+        <v>3</v>
+      </c>
+      <c r="I32" s="10">
+        <v>90</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H33" s="10">
+        <v>3</v>
+      </c>
+      <c r="I33" s="10">
+        <v>80</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H34" s="6">
+        <v>2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>3</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6">
+        <v>4</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>7</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H35" s="6">
+        <v>9</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H36" s="6">
+        <v>4</v>
+      </c>
+      <c r="I36" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H37" s="6">
+        <v>4</v>
+      </c>
+      <c r="I37" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
+        <v>1</v>
+      </c>
+      <c r="J38" s="10">
+        <v>3</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+      <c r="L38" s="10">
+        <v>4</v>
+      </c>
+      <c r="M38" s="10">
+        <v>1</v>
+      </c>
+      <c r="N38" s="10">
+        <v>6</v>
+      </c>
+      <c r="O38" s="10">
+        <v>1</v>
+      </c>
+      <c r="P38" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>1</v>
+      </c>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+    </row>
+    <row r="39" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H39" s="10">
+        <v>9</v>
+      </c>
+      <c r="I39" s="10">
+        <v>1</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+    </row>
+    <row r="40" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
+        <v>10</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10">
+        <v>20</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+    </row>
+    <row r="42" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H42" s="6">
+        <v>2</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>3</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="L42" s="6">
+        <v>4</v>
+      </c>
+      <c r="M42" s="6">
+        <v>1</v>
+      </c>
+      <c r="N42" s="6">
+        <v>7</v>
+      </c>
+      <c r="O42" s="6">
+        <v>1</v>
+      </c>
+      <c r="P42" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>1</v>
+      </c>
+      <c r="R42" s="6">
+        <v>9</v>
+      </c>
+      <c r="S42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H43" s="6">
+        <v>9</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H44" s="6">
+        <v>3</v>
+      </c>
+      <c r="I44" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H45" s="6">
+        <v>3</v>
+      </c>
+      <c r="I45" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H46" s="10">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+    </row>
+    <row r="47" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H47" s="10">
+        <v>9</v>
+      </c>
+      <c r="I47" s="10">
+        <v>1</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+    </row>
+    <row r="48" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+    </row>
+    <row r="49" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:S1"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A17:F17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595D6A6-8199-47F6-9074-EBFF893E6D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557AE7F-ED87-4681-B59B-72B112CA9550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32720" yWindow="2390" windowWidth="23190" windowHeight="18160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -471,18 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,6 +500,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,40 +810,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" customWidth="1"/>
-    <col min="8" max="16" width="8.58203125" style="6"/>
+    <col min="3" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="8" max="16" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -858,8 +858,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -878,20 +878,14 @@
         <v>5</v>
       </c>
       <c r="H3" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="6">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,17 +898,17 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -933,20 +927,11 @@
         <v>5</v>
       </c>
       <c r="H5" s="6">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -959,16 +944,19 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="H6" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -978,20 +966,17 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="6">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
         <v>5</v>
       </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1012,15 +997,9 @@
       <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1033,10 +1012,25 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>4</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1048,20 +1042,17 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="H10" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
       <c r="J10" s="6">
-        <v>6</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1080,17 +1071,20 @@
         <v>5</v>
       </c>
       <c r="H11" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1109,14 +1103,11 @@
         <v>1</v>
       </c>
       <c r="J12" s="6">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1135,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -1143,9 +1134,12 @@
       <c r="J13" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1152,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="H14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -1166,11 +1160,8 @@
       <c r="J14" s="6">
         <v>2</v>
       </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1180,17 +1171,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="H15" s="6">
-        <v>3</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1209,11 +1194,14 @@
         <v>5</v>
       </c>
       <c r="H16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1229,16 +1217,13 @@
         <v>3</v>
       </c>
       <c r="I17" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="6">
-        <v>4</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1248,50 +1233,38 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
       </c>
-      <c r="J18" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H19" s="6">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="H20" s="6">
         <v>5</v>
       </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>6</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="H20" s="6">
-        <v>3</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1304,20 +1277,11 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>2</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1330,97 +1294,57 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="H22" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="H23" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="26" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="H25" s="6">
-        <v>3</v>
-      </c>
-      <c r="I25" s="6">
-        <v>3</v>
-      </c>
-      <c r="J25" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="26" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="H26" s="6">
-        <v>4</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="H27" s="6">
-        <v>3</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="H28" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1430,12 +1354,9 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="22"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1447,28 +1368,19 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="H30" s="6">
-        <v>5</v>
-      </c>
-      <c r="I30" s="6">
-        <v>5</v>
-      </c>
-      <c r="J30" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="18" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="21" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1481,8 +1393,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="22"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1495,18 +1407,18 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1525,8 +1437,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="22"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1539,18 +1451,18 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="21" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1563,8 +1475,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="22"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1579,6 +1491,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1595,11 +1512,6 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1612,33 +1524,33 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="6" max="11" width="8.58203125" style="6"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="6" max="11" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
@@ -1687,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="6">
         <v>2</v>
@@ -1703,7 +1615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="6">
         <v>1</v>
@@ -1717,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="6">
         <v>2</v>
@@ -1727,10 +1639,13 @@
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="6">
         <v>1</v>
@@ -1744,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="6">
         <v>1</v>
@@ -1758,8 +1673,11 @@
       <c r="F9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
@@ -1777,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
@@ -1795,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="6">
         <v>1</v>
@@ -1806,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="6">
         <v>2</v>
@@ -1822,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="6">
         <v>1</v>
@@ -1836,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="6">
         <v>2</v>
@@ -1849,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="6">
         <v>1</v>
@@ -1867,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6">
         <v>0</v>
       </c>
@@ -1875,12 +1793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="6" t="s">
         <v>38</v>
       </c>
@@ -1888,7 +1806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="6">
         <v>0</v>
       </c>
@@ -1896,12 +1814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1909,7 +1827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" s="6">
         <v>0</v>
       </c>
@@ -1917,12 +1835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25" s="6" t="s">
         <v>38</v>
       </c>
@@ -1930,7 +1848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F26" s="6">
         <v>0</v>
       </c>
@@ -1938,12 +1856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28" s="6" t="s">
         <v>38</v>
       </c>
@@ -1951,7 +1869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F29" s="6">
         <v>0</v>
       </c>
@@ -1959,12 +1877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F31" s="6" t="s">
         <v>38</v>
       </c>
@@ -1972,7 +1890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F32" s="6">
         <v>0</v>
       </c>
@@ -1980,12 +1898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="6" t="s">
         <v>38</v>
       </c>
@@ -1993,7 +1911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" s="6">
         <v>0</v>
       </c>
@@ -2001,12 +1919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F36" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F37" s="6" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +1932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F38" s="6">
         <v>0</v>
       </c>
@@ -2022,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F39" s="6">
         <v>3</v>
       </c>
@@ -2042,20 +1960,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.4140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" style="12" customWidth="1"/>
-    <col min="3" max="7" width="8.6640625" style="12"/>
-    <col min="8" max="19" width="8.6640625" style="6"/>
-    <col min="20" max="16384" width="8.6640625" style="12"/>
+    <col min="1" max="1" width="14.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
+    <col min="3" max="7" width="8.625" style="12"/>
+    <col min="8" max="19" width="8.625" style="6"/>
+    <col min="20" max="16384" width="8.625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
@@ -2079,7 +1997,7 @@
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -2105,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
@@ -2125,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
@@ -2139,13 +2057,13 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="H4" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>60</v>
       </c>
@@ -2159,13 +2077,13 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="H5" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -2205,7 +2123,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
@@ -2235,7 +2153,7 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>61</v>
       </c>
@@ -2265,7 +2183,7 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -2295,7 +2213,7 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>45</v>
       </c>
@@ -2333,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -2353,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
@@ -2373,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>64</v>
       </c>
@@ -2393,17 +2311,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="H14" s="10">
         <v>1</v>
       </c>
@@ -2429,7 +2347,7 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H15" s="10">
         <v>9</v>
       </c>
@@ -2447,7 +2365,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H16" s="10">
         <v>2</v>
       </c>
@@ -2465,7 +2383,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>52</v>
       </c>
@@ -2491,17 +2409,17 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="H18" s="6">
         <v>1</v>
       </c>
@@ -2527,17 +2445,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="H19" s="6">
         <v>9</v>
       </c>
@@ -2545,17 +2463,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="H20" s="6">
         <v>1</v>
       </c>
@@ -2563,17 +2481,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="H21" s="6">
         <v>0</v>
       </c>
@@ -2581,17 +2499,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
       <c r="H22" s="10">
         <v>2</v>
       </c>
@@ -2613,17 +2531,17 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="H23" s="10">
         <v>9</v>
       </c>
@@ -2641,7 +2559,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="10">
         <v>3</v>
       </c>
@@ -2659,7 +2577,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H25" s="10">
         <v>0</v>
       </c>
@@ -2677,7 +2595,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H26" s="6">
         <v>2</v>
       </c>
@@ -2697,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H27" s="6">
         <v>9</v>
       </c>
@@ -2705,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H28" s="6">
         <v>2</v>
       </c>
@@ -2713,7 +2631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H29" s="6">
         <v>0</v>
       </c>
@@ -2721,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H30" s="10">
         <v>1</v>
       </c>
@@ -2751,7 +2669,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H31" s="10">
         <v>9</v>
       </c>
@@ -2769,7 +2687,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H32" s="10">
         <v>3</v>
       </c>
@@ -2787,7 +2705,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33" s="10">
         <v>3</v>
       </c>
@@ -2805,7 +2723,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34" s="6">
         <v>2</v>
       </c>
@@ -2831,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35" s="6">
         <v>9</v>
       </c>
@@ -2839,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36" s="6">
         <v>4</v>
       </c>
@@ -2847,7 +2765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37" s="6">
         <v>4</v>
       </c>
@@ -2855,7 +2773,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38" s="10">
         <v>1</v>
       </c>
@@ -2889,7 +2807,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39" s="10">
         <v>9</v>
       </c>
@@ -2907,7 +2825,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40" s="10">
         <v>1</v>
       </c>
@@ -2925,7 +2843,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41" s="10">
         <v>1</v>
       </c>
@@ -2943,7 +2861,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H42" s="6">
         <v>2</v>
       </c>
@@ -2981,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H43" s="6">
         <v>9</v>
       </c>
@@ -2989,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H44" s="6">
         <v>3</v>
       </c>
@@ -2997,7 +2915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H45" s="6">
         <v>3</v>
       </c>
@@ -3005,7 +2923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H46" s="10">
         <v>1</v>
       </c>
@@ -3023,7 +2941,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H47" s="10">
         <v>9</v>
       </c>
@@ -3041,7 +2959,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H48" s="10">
         <v>0</v>
       </c>
@@ -3059,7 +2977,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="49" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H49" s="10">
         <v>0</v>
       </c>
@@ -3079,16 +2997,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:S1"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:S1"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557AE7F-ED87-4681-B59B-72B112CA9550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DB26B8-FD6C-4636-9407-AF08F3A7CCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="375" windowWidth="25725" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
     <sheet name="Cycle" sheetId="2" r:id="rId2"/>
     <sheet name="Stage" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -471,6 +482,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,18 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,7 +822,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -823,25 +834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -859,7 +870,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -885,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,7 +919,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -931,7 +942,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -976,7 +987,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -999,7 +1010,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1015,19 +1026,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="6">
         <v>3</v>
       </c>
       <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1042,17 +1047,17 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="H10" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
       <c r="J10" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1071,20 +1076,14 @@
         <v>5</v>
       </c>
       <c r="H11" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>6</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1097,17 +1096,17 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
       </c>
       <c r="J12" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1126,20 +1125,11 @@
         <v>5</v>
       </c>
       <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>2</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1152,12 +1142,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="H14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="6">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1171,11 +1164,17 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="H15" s="6">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1194,14 +1193,14 @@
         <v>5</v>
       </c>
       <c r="H16" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1214,16 +1213,16 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="H17" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I17" s="6">
         <v>3</v>
       </c>
       <c r="J17" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1233,38 +1232,44 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="H20" s="6">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
         <v>4</v>
       </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="6">
-        <v>3</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="H20" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1277,11 +1282,20 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1294,57 +1308,57 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="H22" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I22" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1355,8 +1369,8 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1369,18 +1383,18 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1394,7 +1408,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1408,17 +1422,17 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1438,7 +1452,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1452,17 +1466,17 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1476,7 +1490,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1491,11 +1505,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1512,6 +1521,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,17 +1535,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G39"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="6" max="11" width="8.625" style="6"/>
+    <col min="6" max="6" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1541,14 +1556,14 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1764,7 +1779,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1778,170 +1793,209 @@
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>38</v>
+      <c r="F16" s="6">
+        <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="6">
-        <v>2</v>
+      <c r="F18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="6" t="s">
-        <v>38</v>
+      <c r="F19" s="6">
+        <v>0</v>
       </c>
       <c r="G19" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="6">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
       <c r="G23" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
       <c r="G26" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="6">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
       <c r="G29" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
       <c r="G32" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
       <c r="G35" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F36" s="6">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
       <c r="G38" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1960,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2236,19 +2290,19 @@
         <v>1</v>
       </c>
       <c r="I10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="6">
         <v>3</v>
       </c>
       <c r="K10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="6">
         <v>4</v>
       </c>
       <c r="M10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2315,30 +2369,30 @@
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="H14" s="10">
         <v>1</v>
       </c>
       <c r="I14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="10">
         <v>3</v>
       </c>
       <c r="K14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="10">
         <v>5</v>
       </c>
       <c r="M14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -2370,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="10">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2413,49 +2467,49 @@
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="H18" s="6">
         <v>1</v>
       </c>
       <c r="I18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="6">
         <v>3</v>
       </c>
       <c r="K18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" s="6">
         <v>4</v>
       </c>
       <c r="M18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="H19" s="6">
         <v>9</v>
       </c>
@@ -2467,31 +2521,31 @@
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
       <c r="H20" s="6">
         <v>1</v>
       </c>
       <c r="I20" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="H21" s="6">
         <v>0</v>
       </c>
@@ -2503,13 +2557,13 @@
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="H22" s="10">
         <v>2</v>
       </c>
@@ -2535,13 +2589,13 @@
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="H23" s="10">
         <v>9</v>
       </c>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DB26B8-FD6C-4636-9407-AF08F3A7CCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3899143-8555-400C-B33E-0AE357EDB72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="375" windowWidth="25725" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="330" windowWidth="23580" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -482,18 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,6 +511,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,25 +834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1250,14 +1250,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="H20" s="6">
         <v>6</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1317,48 +1317,100 @@
         <v>5</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="6">
+        <v>6</v>
+      </c>
+    </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6">
+        <v>3</v>
+      </c>
+      <c r="J24" s="6">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="H25" s="6">
+        <v>6</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="H26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="H28" s="6">
+        <v>7</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1368,9 +1420,15 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
+      <c r="H29" s="6">
+        <v>4</v>
+      </c>
+      <c r="I29" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1382,19 +1440,31 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
+      <c r="H30" s="6">
+        <v>5</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="H31" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1406,9 +1476,21 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>4</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2</v>
+      </c>
+      <c r="K32" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,19 +1502,40 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="H33" s="6">
+        <v>6</v>
+      </c>
+      <c r="I33" s="6">
+        <v>4</v>
+      </c>
+      <c r="J33" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="H34" s="6">
+        <v>4</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4</v>
+      </c>
+      <c r="J34" s="6">
+        <v>6</v>
+      </c>
+      <c r="K34" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1450,9 +1553,18 @@
       <c r="F35" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="H35" s="6">
+        <v>7</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1464,19 +1576,28 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="H36" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="H37" s="6">
+        <v>2</v>
+      </c>
+      <c r="I37" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1488,9 +1609,18 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="H38" s="6">
+        <v>6</v>
+      </c>
+      <c r="I38" s="6">
+        <v>3</v>
+      </c>
+      <c r="J38" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1502,9 +1632,204 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
+      <c r="H39" s="6">
+        <v>3</v>
+      </c>
+      <c r="I39" s="6">
+        <v>4</v>
+      </c>
+      <c r="J39" s="6">
+        <v>4</v>
+      </c>
+      <c r="K39" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H40" s="6">
+        <v>3</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="6">
+        <v>7</v>
+      </c>
+      <c r="I41" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="6">
+        <v>5</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H45" s="6">
+        <v>5</v>
+      </c>
+      <c r="I45" s="6">
+        <v>3</v>
+      </c>
+      <c r="J45" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H46" s="6">
+        <v>3</v>
+      </c>
+      <c r="I46" s="6">
+        <v>4</v>
+      </c>
+      <c r="J46" s="6">
+        <v>4</v>
+      </c>
+      <c r="K46" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H47" s="6">
+        <v>7</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H48" s="6">
+        <v>6</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4</v>
+      </c>
+      <c r="J48" s="6">
+        <v>8</v>
+      </c>
+      <c r="K48" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H49" s="6">
+        <v>4</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H50" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H51" s="6">
+        <v>2</v>
+      </c>
+      <c r="I51" s="6">
+        <v>5</v>
+      </c>
+      <c r="J51" s="6">
+        <v>3</v>
+      </c>
+      <c r="K51" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H52" s="6">
+        <v>8</v>
+      </c>
+      <c r="I52" s="6">
+        <v>5</v>
+      </c>
+      <c r="J52" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H53" s="6">
+        <v>5</v>
+      </c>
+      <c r="I53" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H54" s="6">
+        <v>4</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H55" s="6">
+        <v>7</v>
+      </c>
+      <c r="I55" s="6">
+        <v>5</v>
+      </c>
+      <c r="J55" s="6">
+        <v>8</v>
+      </c>
+      <c r="K55" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H56" s="6">
+        <v>5</v>
+      </c>
+      <c r="I56" s="6">
+        <v>5</v>
+      </c>
+      <c r="J56" s="6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1521,11 +1846,6 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:K45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1556,14 +1876,14 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1857,120 +2177,117 @@
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="6" t="s">
-        <v>38</v>
+      <c r="F26" s="6">
+        <v>0</v>
       </c>
       <c r="G26" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F28" s="6">
-        <v>1</v>
+      <c r="F28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F29" s="6" t="s">
-        <v>38</v>
+      <c r="F29" s="6">
+        <v>0</v>
       </c>
       <c r="G29" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F31" s="6">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
       <c r="G33" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="6">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
       <c r="G36" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F37" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
       <c r="G39" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F40" s="6">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="6">
-        <v>12</v>
+      <c r="F41" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.3">
@@ -1983,19 +2300,74 @@
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F43" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="6">
-        <v>0</v>
+      <c r="F44" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G44" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F48" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2014,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:S49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2322,7 +2694,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -2369,13 +2741,13 @@
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="H14" s="10">
         <v>1</v>
       </c>
@@ -2406,7 +2778,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2424,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="10">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2467,13 +2839,13 @@
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="H18" s="6">
         <v>1</v>
       </c>
@@ -2503,31 +2875,31 @@
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="H19" s="6">
         <v>9</v>
       </c>
       <c r="I19" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="H20" s="6">
         <v>1</v>
       </c>
@@ -2539,13 +2911,13 @@
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="H21" s="6">
         <v>0</v>
       </c>
@@ -2557,24 +2929,24 @@
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
       <c r="H22" s="10">
         <v>2</v>
       </c>
       <c r="I22" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="10">
         <v>5</v>
       </c>
       <c r="K22" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -2589,18 +2961,18 @@
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="H23" s="10">
         <v>9</v>
       </c>
       <c r="I23" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2618,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -2654,19 +3026,19 @@
         <v>2</v>
       </c>
       <c r="I26" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="6">
         <v>4</v>
       </c>
       <c r="K26" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="6">
         <v>5</v>
       </c>
       <c r="M26" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -2674,15 +3046,15 @@
         <v>9</v>
       </c>
       <c r="I27" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H28" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="6">
-        <v>10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2698,25 +3070,25 @@
         <v>1</v>
       </c>
       <c r="I30" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" s="10">
         <v>2</v>
       </c>
       <c r="K30" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30" s="10">
         <v>4</v>
       </c>
       <c r="M30" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" s="10">
         <v>6</v>
       </c>
       <c r="O30" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
@@ -2728,7 +3100,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2743,10 +3115,10 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H32" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" s="10">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -2761,10 +3133,10 @@
     </row>
     <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="10">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -2782,25 +3154,25 @@
         <v>2</v>
       </c>
       <c r="I34" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" s="6">
         <v>3</v>
       </c>
       <c r="K34" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L34" s="6">
         <v>4</v>
       </c>
       <c r="M34" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" s="6">
         <v>7</v>
       </c>
       <c r="O34" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="8:19" x14ac:dyDescent="0.3">
@@ -2808,23 +3180,23 @@
         <v>9</v>
       </c>
       <c r="I35" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" s="6">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" s="6">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="8:19" x14ac:dyDescent="0.3">
@@ -2832,31 +3204,31 @@
         <v>1</v>
       </c>
       <c r="I38" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" s="10">
         <v>3</v>
       </c>
       <c r="K38" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" s="10">
         <v>4</v>
       </c>
       <c r="M38" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38" s="10">
         <v>6</v>
       </c>
       <c r="O38" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P38" s="10">
         <v>8</v>
       </c>
       <c r="Q38" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -2866,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="I39" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -2881,10 +3253,10 @@
     </row>
     <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="10">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -2899,10 +3271,10 @@
     </row>
     <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="10">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -2920,37 +3292,37 @@
         <v>2</v>
       </c>
       <c r="I42" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" s="6">
         <v>3</v>
       </c>
       <c r="K42" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L42" s="6">
         <v>4</v>
       </c>
       <c r="M42" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" s="6">
         <v>7</v>
       </c>
       <c r="O42" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P42" s="6">
         <v>8</v>
       </c>
       <c r="Q42" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R42" s="6">
         <v>9</v>
       </c>
       <c r="S42" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="8:19" x14ac:dyDescent="0.3">
@@ -2958,23 +3330,23 @@
         <v>9</v>
       </c>
       <c r="I43" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H44" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H45" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="8:19" x14ac:dyDescent="0.3">
@@ -2982,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -3000,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3899143-8555-400C-B33E-0AE357EDB72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01836CD-58A2-4069-8474-2D43B10F181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="330" windowWidth="23580" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="405" windowWidth="23070" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
   <si>
     <t>Pattern Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,18 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,7 +822,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,25 +834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1250,14 +1250,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="H20" s="6">
         <v>6</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,14 +1323,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="H24" s="6">
         <v>2</v>
       </c>
@@ -1345,14 +1345,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="H25" s="6">
         <v>6</v>
       </c>
@@ -1364,14 +1364,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
       <c r="H26" s="6">
         <v>7</v>
       </c>
@@ -1391,14 +1391,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
       <c r="H28" s="6">
         <v>7</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1451,20 +1451,20 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="H31" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1513,14 +1513,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="H34" s="6">
         <v>4</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1581,14 +1581,14 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="H37" s="6">
         <v>2</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,11 +1825,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1846,6 +1841,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1876,14 +1876,14 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1900,7 +1900,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1947,7 +1947,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1976,9 +1976,6 @@
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
@@ -1987,11 +1984,11 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="F8" s="6">
-        <v>0</v>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2006,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2023,11 +2020,11 @@
         <v>37</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="F10" s="6" t="s">
-        <v>38</v>
+      <c r="F10" s="6">
+        <v>1</v>
       </c>
       <c r="G10" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2056,7 +2053,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="F12" s="6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2072,7 +2072,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="F15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2113,24 +2113,24 @@
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="F16" s="6">
-        <v>0</v>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5</v>
+      <c r="F18" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
@@ -2143,28 +2143,28 @@
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="6">
-        <v>0</v>
+      <c r="F21" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" s="6">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="6">
-        <v>6</v>
+      <c r="F23" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.3">
@@ -2177,28 +2177,28 @@
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="6">
         <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="6">
         <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.3">
@@ -2211,28 +2211,28 @@
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="6">
         <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="6">
         <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="6">
-        <v>8</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.3">
@@ -2266,7 +2266,7 @@
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F38" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.3">
@@ -2287,28 +2287,28 @@
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F41" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="6">
         <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="6">
         <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="6">
-        <v>11</v>
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.3">
@@ -2321,28 +2321,28 @@
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F46" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="6">
         <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="6">
         <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="6">
-        <v>12</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
@@ -2355,19 +2355,40 @@
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="6">
-        <v>0</v>
+      <c r="F52" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G52" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2741,13 +2762,13 @@
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="H14" s="10">
         <v>1</v>
       </c>
@@ -2839,13 +2860,13 @@
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="H18" s="6">
         <v>1</v>
       </c>
@@ -2875,13 +2896,13 @@
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="H19" s="6">
         <v>9</v>
       </c>
@@ -2893,13 +2914,13 @@
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
       <c r="H20" s="6">
         <v>1</v>
       </c>
@@ -2911,13 +2932,13 @@
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="H21" s="6">
         <v>0</v>
       </c>
@@ -2929,13 +2950,13 @@
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="H22" s="10">
         <v>2</v>
       </c>
@@ -2961,13 +2982,13 @@
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="H23" s="10">
         <v>9</v>
       </c>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01836CD-58A2-4069-8474-2D43B10F181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CD496-AD62-4212-97DD-25AF4C858CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="405" windowWidth="23070" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="1020" windowWidth="23070" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -482,18 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,6 +511,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,25 +834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1250,14 +1250,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="H20" s="6">
         <v>6</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,14 +1323,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="H24" s="6">
         <v>2</v>
       </c>
@@ -1345,14 +1345,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="H25" s="6">
         <v>6</v>
       </c>
@@ -1364,14 +1364,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="H26" s="6">
         <v>7</v>
       </c>
@@ -1391,14 +1391,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
       <c r="H28" s="6">
         <v>7</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1451,20 +1451,20 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
       <c r="H31" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1513,14 +1513,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
       <c r="H34" s="6">
         <v>4</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1581,14 +1581,14 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
       <c r="H37" s="6">
         <v>2</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,6 +1825,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1841,11 +1846,6 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1876,14 +1876,14 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2405,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2463,12 +2463,22 @@
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
+      <c r="H2" s="10">
+        <v>3</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -2483,12 +2493,22 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="6">
+      <c r="H3" s="10">
         <v>9</v>
       </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -2503,12 +2523,22 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
@@ -2523,12 +2553,22 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -2549,26 +2589,12 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -2583,22 +2609,12 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>9</v>
       </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -2613,22 +2629,12 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
@@ -2643,22 +2649,12 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -2679,24 +2675,26 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>2</v>
-      </c>
-      <c r="L10" s="6">
-        <v>4</v>
-      </c>
-      <c r="M10" s="6">
-        <v>2</v>
-      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -2711,12 +2709,22 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="6">
+      <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -2731,12 +2739,22 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -2751,84 +2769,68 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>2</v>
-      </c>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10">
-        <v>2</v>
-      </c>
-      <c r="L14" s="10">
-        <v>5</v>
-      </c>
-      <c r="M14" s="10">
-        <v>2</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H15" s="10">
+      <c r="H15" s="6">
         <v>9</v>
       </c>
-      <c r="I15" s="10">
-        <v>2</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H16" s="10">
-        <v>2</v>
-      </c>
-      <c r="I16" s="10">
-        <v>80</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -2839,608 +2841,678 @@
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>3</v>
-      </c>
-      <c r="J18" s="6">
-        <v>3</v>
-      </c>
-      <c r="K18" s="6">
-        <v>3</v>
-      </c>
-      <c r="L18" s="6">
-        <v>4</v>
-      </c>
-      <c r="M18" s="6">
-        <v>3</v>
-      </c>
-      <c r="N18" s="6">
-        <v>5</v>
-      </c>
-      <c r="O18" s="6">
-        <v>3</v>
-      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>3</v>
+      </c>
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+      <c r="L18" s="10">
+        <v>5</v>
+      </c>
+      <c r="M18" s="10">
+        <v>2</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="H19" s="6">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="10">
         <v>9</v>
       </c>
-      <c r="I19" s="6">
-        <v>3</v>
-      </c>
+      <c r="I19" s="10">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>50</v>
-      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="10">
+        <v>2</v>
+      </c>
+      <c r="I20" s="10">
+        <v>80</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="H22" s="10">
-        <v>2</v>
-      </c>
-      <c r="I22" s="10">
-        <v>3</v>
-      </c>
-      <c r="J22" s="10">
-        <v>5</v>
-      </c>
-      <c r="K22" s="10">
-        <v>3</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4</v>
+      </c>
+      <c r="M22" s="6">
+        <v>3</v>
+      </c>
+      <c r="N22" s="6">
+        <v>5</v>
+      </c>
+      <c r="O22" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="H23" s="10">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="6">
         <v>9</v>
       </c>
-      <c r="I23" s="10">
-        <v>3</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="I23" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="10">
-        <v>3</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H26" s="10">
+        <v>2</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3</v>
+      </c>
+      <c r="J26" s="10">
+        <v>5</v>
+      </c>
+      <c r="K26" s="10">
+        <v>3</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H27" s="10">
+        <v>9</v>
+      </c>
+      <c r="I27" s="10">
+        <v>3</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H28" s="10">
+        <v>3</v>
+      </c>
+      <c r="I28" s="10">
         <v>80</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H26" s="6">
-        <v>2</v>
-      </c>
-      <c r="I26" s="6">
-        <v>3</v>
-      </c>
-      <c r="J26" s="6">
-        <v>4</v>
-      </c>
-      <c r="K26" s="6">
-        <v>3</v>
-      </c>
-      <c r="L26" s="6">
-        <v>5</v>
-      </c>
-      <c r="M26" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H27" s="6">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H30" s="6">
+        <v>2</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4</v>
+      </c>
+      <c r="K30" s="6">
+        <v>3</v>
+      </c>
+      <c r="L30" s="6">
+        <v>5</v>
+      </c>
+      <c r="M30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H31" s="6">
         <v>9</v>
       </c>
-      <c r="I27" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H28" s="6">
-        <v>4</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="I31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H32" s="6">
+        <v>4</v>
+      </c>
+      <c r="I32" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10">
-        <v>4</v>
-      </c>
-      <c r="J30" s="10">
-        <v>2</v>
-      </c>
-      <c r="K30" s="10">
-        <v>4</v>
-      </c>
-      <c r="L30" s="10">
-        <v>4</v>
-      </c>
-      <c r="M30" s="10">
-        <v>4</v>
-      </c>
-      <c r="N30" s="10">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>4</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>4</v>
+      </c>
+      <c r="L34" s="10">
+        <v>4</v>
+      </c>
+      <c r="M34" s="10">
+        <v>4</v>
+      </c>
+      <c r="N34" s="10">
         <v>6</v>
       </c>
-      <c r="O30" s="10">
-        <v>4</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H31" s="10">
+      <c r="O34" s="10">
+        <v>4</v>
+      </c>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H35" s="10">
         <v>9</v>
       </c>
-      <c r="I31" s="10">
-        <v>4</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H32" s="10">
-        <v>5</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="I35" s="10">
+        <v>4</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H36" s="10">
+        <v>5</v>
+      </c>
+      <c r="I36" s="10">
         <v>30</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-    </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H33" s="10">
-        <v>2</v>
-      </c>
-      <c r="I33" s="10">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+    </row>
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H37" s="10">
+        <v>2</v>
+      </c>
+      <c r="I37" s="10">
         <v>300</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H34" s="6">
-        <v>2</v>
-      </c>
-      <c r="I34" s="6">
-        <v>4</v>
-      </c>
-      <c r="J34" s="6">
-        <v>3</v>
-      </c>
-      <c r="K34" s="6">
-        <v>4</v>
-      </c>
-      <c r="L34" s="6">
-        <v>4</v>
-      </c>
-      <c r="M34" s="6">
-        <v>4</v>
-      </c>
-      <c r="N34" s="6">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+    </row>
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H38" s="6">
+        <v>2</v>
+      </c>
+      <c r="I38" s="6">
+        <v>4</v>
+      </c>
+      <c r="J38" s="6">
+        <v>3</v>
+      </c>
+      <c r="K38" s="6">
+        <v>4</v>
+      </c>
+      <c r="L38" s="6">
+        <v>4</v>
+      </c>
+      <c r="M38" s="6">
+        <v>4</v>
+      </c>
+      <c r="N38" s="6">
         <v>7</v>
       </c>
-      <c r="O34" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H35" s="6">
+      <c r="O38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H39" s="6">
         <v>9</v>
       </c>
-      <c r="I35" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H36" s="6">
-        <v>3</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="I39" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H40" s="6">
+        <v>3</v>
+      </c>
+      <c r="I40" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H37" s="6">
-        <v>3</v>
-      </c>
-      <c r="I37" s="6">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H41" s="6">
+        <v>3</v>
+      </c>
+      <c r="I41" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H38" s="10">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10">
-        <v>4</v>
-      </c>
-      <c r="J38" s="10">
-        <v>3</v>
-      </c>
-      <c r="K38" s="10">
-        <v>4</v>
-      </c>
-      <c r="L38" s="10">
-        <v>4</v>
-      </c>
-      <c r="M38" s="10">
-        <v>4</v>
-      </c>
-      <c r="N38" s="10">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H42" s="10">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10">
+        <v>4</v>
+      </c>
+      <c r="J42" s="10">
+        <v>3</v>
+      </c>
+      <c r="K42" s="10">
+        <v>4</v>
+      </c>
+      <c r="L42" s="10">
+        <v>4</v>
+      </c>
+      <c r="M42" s="10">
+        <v>4</v>
+      </c>
+      <c r="N42" s="10">
         <v>6</v>
       </c>
-      <c r="O38" s="10">
-        <v>4</v>
-      </c>
-      <c r="P38" s="10">
+      <c r="O42" s="10">
+        <v>4</v>
+      </c>
+      <c r="P42" s="10">
         <v>8</v>
       </c>
-      <c r="Q38" s="10">
-        <v>4</v>
-      </c>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-    </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H39" s="10">
+      <c r="Q42" s="10">
+        <v>4</v>
+      </c>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+    </row>
+    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H43" s="10">
         <v>9</v>
       </c>
-      <c r="I39" s="10">
-        <v>4</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H40" s="10">
-        <v>2</v>
-      </c>
-      <c r="I40" s="10">
+      <c r="I43" s="10">
+        <v>4</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+    </row>
+    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H44" s="10">
+        <v>2</v>
+      </c>
+      <c r="I44" s="10">
         <v>120</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-    </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H41" s="10">
-        <v>2</v>
-      </c>
-      <c r="I41" s="10">
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+    </row>
+    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H45" s="10">
+        <v>2</v>
+      </c>
+      <c r="I45" s="10">
         <v>240</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H42" s="6">
-        <v>2</v>
-      </c>
-      <c r="I42" s="6">
-        <v>5</v>
-      </c>
-      <c r="J42" s="6">
-        <v>3</v>
-      </c>
-      <c r="K42" s="6">
-        <v>5</v>
-      </c>
-      <c r="L42" s="6">
-        <v>4</v>
-      </c>
-      <c r="M42" s="6">
-        <v>5</v>
-      </c>
-      <c r="N42" s="6">
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+    </row>
+    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H46" s="6">
+        <v>2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>5</v>
+      </c>
+      <c r="J46" s="6">
+        <v>3</v>
+      </c>
+      <c r="K46" s="6">
+        <v>5</v>
+      </c>
+      <c r="L46" s="6">
+        <v>4</v>
+      </c>
+      <c r="M46" s="6">
+        <v>5</v>
+      </c>
+      <c r="N46" s="6">
         <v>7</v>
       </c>
-      <c r="O42" s="6">
-        <v>5</v>
-      </c>
-      <c r="P42" s="6">
+      <c r="O46" s="6">
+        <v>5</v>
+      </c>
+      <c r="P46" s="6">
         <v>8</v>
       </c>
-      <c r="Q42" s="6">
-        <v>5</v>
-      </c>
-      <c r="R42" s="6">
+      <c r="Q46" s="6">
+        <v>5</v>
+      </c>
+      <c r="R46" s="6">
         <v>9</v>
       </c>
-      <c r="S42" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H43" s="6">
+      <c r="S46" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H47" s="6">
         <v>9</v>
       </c>
-      <c r="I43" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="I47" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H45" s="6">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6">
+    <row r="49" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H46" s="10">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10">
-        <v>5</v>
-      </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-    </row>
-    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H47" s="10">
+    <row r="50" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="10">
+        <v>5</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+    </row>
+    <row r="51" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H51" s="10">
         <v>9</v>
       </c>
-      <c r="I47" s="10">
-        <v>5</v>
-      </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-      <c r="I48" s="10">
-        <v>0</v>
-      </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-    </row>
-    <row r="49" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-      <c r="I49" s="10">
-        <v>0</v>
-      </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
+      <c r="I51" s="10">
+        <v>5</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+    </row>
+    <row r="52" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+    </row>
+    <row r="53" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CD496-AD62-4212-97DD-25AF4C858CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D00AAEB-505E-4FB2-8154-6627B1004587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1605" yWindow="1020" windowWidth="23070" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,6 +482,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,18 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,25 +834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1250,14 +1250,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="H20" s="6">
         <v>6</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,14 +1323,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="H24" s="6">
         <v>2</v>
       </c>
@@ -1345,14 +1345,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="H25" s="6">
         <v>6</v>
       </c>
@@ -1364,14 +1364,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
       <c r="H26" s="6">
         <v>7</v>
       </c>
@@ -1391,14 +1391,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
       <c r="H28" s="6">
         <v>7</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1451,20 +1451,20 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="H31" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1513,14 +1513,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="H34" s="6">
         <v>4</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1581,14 +1581,14 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="H37" s="6">
         <v>2</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,11 +1825,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1846,6 +1841,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1876,14 +1876,14 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2405,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2463,22 +2463,12 @@
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10">
-        <v>3</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="H2" s="6">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -2493,22 +2483,12 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>9</v>
       </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -2523,22 +2503,12 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
@@ -2553,22 +2523,12 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -2589,12 +2549,26 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -2609,12 +2583,22 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
         <v>9</v>
       </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -2629,12 +2613,22 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
@@ -2649,12 +2643,22 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -2675,26 +2679,24 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -2709,22 +2711,12 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <v>9</v>
       </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -2739,22 +2731,12 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -2769,68 +2751,84 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>2</v>
-      </c>
-      <c r="J14" s="6">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6">
-        <v>2</v>
-      </c>
-      <c r="L14" s="6">
-        <v>4</v>
-      </c>
-      <c r="M14" s="6">
-        <v>2</v>
-      </c>
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>2</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10">
+        <v>2</v>
+      </c>
+      <c r="L14" s="10">
+        <v>5</v>
+      </c>
+      <c r="M14" s="10">
+        <v>2</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H15" s="6">
+      <c r="H15" s="10">
         <v>9</v>
       </c>
-      <c r="I15" s="6">
-        <v>2</v>
-      </c>
+      <c r="I15" s="10">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>80</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -2841,678 +2839,608 @@
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
-        <v>2</v>
-      </c>
-      <c r="J18" s="10">
-        <v>3</v>
-      </c>
-      <c r="K18" s="10">
-        <v>2</v>
-      </c>
-      <c r="L18" s="10">
-        <v>5</v>
-      </c>
-      <c r="M18" s="10">
-        <v>2</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3</v>
+      </c>
+      <c r="L18" s="6">
+        <v>4</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3</v>
+      </c>
+      <c r="N18" s="6">
+        <v>5</v>
+      </c>
+      <c r="O18" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="H19" s="10">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="H19" s="6">
         <v>9</v>
       </c>
-      <c r="I19" s="10">
-        <v>2</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="I19" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="H20" s="10">
-        <v>2</v>
-      </c>
-      <c r="I20" s="10">
-        <v>80</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>3</v>
-      </c>
-      <c r="J22" s="6">
-        <v>3</v>
-      </c>
-      <c r="K22" s="6">
-        <v>3</v>
-      </c>
-      <c r="L22" s="6">
-        <v>4</v>
-      </c>
-      <c r="M22" s="6">
-        <v>3</v>
-      </c>
-      <c r="N22" s="6">
-        <v>5</v>
-      </c>
-      <c r="O22" s="6">
-        <v>3</v>
-      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>3</v>
+      </c>
+      <c r="J22" s="10">
+        <v>5</v>
+      </c>
+      <c r="K22" s="10">
+        <v>3</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="H23" s="6">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="H23" s="10">
         <v>9</v>
       </c>
-      <c r="I23" s="6">
-        <v>3</v>
-      </c>
+      <c r="I23" s="10">
+        <v>3</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="H24" s="10">
+        <v>3</v>
+      </c>
+      <c r="I24" s="10">
+        <v>80</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H26" s="6">
+        <v>2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>3</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4</v>
+      </c>
+      <c r="K26" s="6">
+        <v>3</v>
+      </c>
+      <c r="L26" s="6">
+        <v>5</v>
+      </c>
+      <c r="M26" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H27" s="6">
+        <v>9</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H28" s="6">
+        <v>4</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <v>4</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2</v>
+      </c>
+      <c r="K30" s="10">
+        <v>4</v>
+      </c>
+      <c r="L30" s="10">
+        <v>4</v>
+      </c>
+      <c r="M30" s="10">
+        <v>4</v>
+      </c>
+      <c r="N30" s="10">
+        <v>6</v>
+      </c>
+      <c r="O30" s="10">
+        <v>4</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H31" s="10">
+        <v>9</v>
+      </c>
+      <c r="I31" s="10">
+        <v>4</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H32" s="10">
+        <v>5</v>
+      </c>
+      <c r="I32" s="10">
+        <v>30</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H33" s="10">
+        <v>2</v>
+      </c>
+      <c r="I33" s="10">
+        <v>300</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H34" s="6">
+        <v>2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4</v>
+      </c>
+      <c r="J34" s="6">
+        <v>3</v>
+      </c>
+      <c r="K34" s="6">
+        <v>4</v>
+      </c>
+      <c r="L34" s="6">
+        <v>4</v>
+      </c>
+      <c r="M34" s="6">
+        <v>4</v>
+      </c>
+      <c r="N34" s="6">
+        <v>7</v>
+      </c>
+      <c r="O34" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H35" s="6">
+        <v>9</v>
+      </c>
+      <c r="I35" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H36" s="6">
+        <v>3</v>
+      </c>
+      <c r="I36" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H37" s="6">
+        <v>3</v>
+      </c>
+      <c r="I37" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
+        <v>4</v>
+      </c>
+      <c r="J38" s="10">
+        <v>3</v>
+      </c>
+      <c r="K38" s="10">
+        <v>4</v>
+      </c>
+      <c r="L38" s="10">
+        <v>4</v>
+      </c>
+      <c r="M38" s="10">
+        <v>4</v>
+      </c>
+      <c r="N38" s="10">
+        <v>6</v>
+      </c>
+      <c r="O38" s="10">
+        <v>4</v>
+      </c>
+      <c r="P38" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>4</v>
+      </c>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+    </row>
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H39" s="10">
+        <v>9</v>
+      </c>
+      <c r="I39" s="10">
+        <v>4</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+    </row>
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H40" s="10">
+        <v>2</v>
+      </c>
+      <c r="I40" s="10">
+        <v>120</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H41" s="10">
+        <v>2</v>
+      </c>
+      <c r="I41" s="10">
+        <v>240</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+    </row>
+    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H42" s="6">
+        <v>2</v>
+      </c>
+      <c r="I42" s="6">
+        <v>5</v>
+      </c>
+      <c r="J42" s="6">
+        <v>3</v>
+      </c>
+      <c r="K42" s="6">
+        <v>5</v>
+      </c>
+      <c r="L42" s="6">
+        <v>4</v>
+      </c>
+      <c r="M42" s="6">
+        <v>5</v>
+      </c>
+      <c r="N42" s="6">
+        <v>7</v>
+      </c>
+      <c r="O42" s="6">
+        <v>5</v>
+      </c>
+      <c r="P42" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>5</v>
+      </c>
+      <c r="R42" s="6">
+        <v>9</v>
+      </c>
+      <c r="S42" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H43" s="6">
+        <v>9</v>
+      </c>
+      <c r="I43" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H26" s="10">
-        <v>2</v>
-      </c>
-      <c r="I26" s="10">
-        <v>3</v>
-      </c>
-      <c r="J26" s="10">
-        <v>5</v>
-      </c>
-      <c r="K26" s="10">
-        <v>3</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H27" s="10">
+    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H46" s="10">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10">
+        <v>5</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+    </row>
+    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H47" s="10">
         <v>9</v>
       </c>
-      <c r="I27" s="10">
-        <v>3</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H28" s="10">
-        <v>3</v>
-      </c>
-      <c r="I28" s="10">
-        <v>80</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H30" s="6">
-        <v>2</v>
-      </c>
-      <c r="I30" s="6">
-        <v>3</v>
-      </c>
-      <c r="J30" s="6">
-        <v>4</v>
-      </c>
-      <c r="K30" s="6">
-        <v>3</v>
-      </c>
-      <c r="L30" s="6">
-        <v>5</v>
-      </c>
-      <c r="M30" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H31" s="6">
-        <v>9</v>
-      </c>
-      <c r="I31" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H32" s="6">
-        <v>4</v>
-      </c>
-      <c r="I32" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10">
-        <v>4</v>
-      </c>
-      <c r="J34" s="10">
-        <v>2</v>
-      </c>
-      <c r="K34" s="10">
-        <v>4</v>
-      </c>
-      <c r="L34" s="10">
-        <v>4</v>
-      </c>
-      <c r="M34" s="10">
-        <v>4</v>
-      </c>
-      <c r="N34" s="10">
-        <v>6</v>
-      </c>
-      <c r="O34" s="10">
-        <v>4</v>
-      </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H35" s="10">
-        <v>9</v>
-      </c>
-      <c r="I35" s="10">
-        <v>4</v>
-      </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H36" s="10">
-        <v>5</v>
-      </c>
-      <c r="I36" s="10">
-        <v>30</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-    </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H37" s="10">
-        <v>2</v>
-      </c>
-      <c r="I37" s="10">
-        <v>300</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H38" s="6">
-        <v>2</v>
-      </c>
-      <c r="I38" s="6">
-        <v>4</v>
-      </c>
-      <c r="J38" s="6">
-        <v>3</v>
-      </c>
-      <c r="K38" s="6">
-        <v>4</v>
-      </c>
-      <c r="L38" s="6">
-        <v>4</v>
-      </c>
-      <c r="M38" s="6">
-        <v>4</v>
-      </c>
-      <c r="N38" s="6">
-        <v>7</v>
-      </c>
-      <c r="O38" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H39" s="6">
-        <v>9</v>
-      </c>
-      <c r="I39" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H40" s="6">
-        <v>3</v>
-      </c>
-      <c r="I40" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H41" s="6">
-        <v>3</v>
-      </c>
-      <c r="I41" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H42" s="10">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10">
-        <v>4</v>
-      </c>
-      <c r="J42" s="10">
-        <v>3</v>
-      </c>
-      <c r="K42" s="10">
-        <v>4</v>
-      </c>
-      <c r="L42" s="10">
-        <v>4</v>
-      </c>
-      <c r="M42" s="10">
-        <v>4</v>
-      </c>
-      <c r="N42" s="10">
-        <v>6</v>
-      </c>
-      <c r="O42" s="10">
-        <v>4</v>
-      </c>
-      <c r="P42" s="10">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>4</v>
-      </c>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-    </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H43" s="10">
-        <v>9</v>
-      </c>
-      <c r="I43" s="10">
-        <v>4</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-    </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H44" s="10">
-        <v>2</v>
-      </c>
-      <c r="I44" s="10">
-        <v>120</v>
-      </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-    </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H45" s="10">
-        <v>2</v>
-      </c>
-      <c r="I45" s="10">
-        <v>240</v>
-      </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-    </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H46" s="6">
-        <v>2</v>
-      </c>
-      <c r="I46" s="6">
-        <v>5</v>
-      </c>
-      <c r="J46" s="6">
-        <v>3</v>
-      </c>
-      <c r="K46" s="6">
-        <v>5</v>
-      </c>
-      <c r="L46" s="6">
-        <v>4</v>
-      </c>
-      <c r="M46" s="6">
-        <v>5</v>
-      </c>
-      <c r="N46" s="6">
-        <v>7</v>
-      </c>
-      <c r="O46" s="6">
-        <v>5</v>
-      </c>
-      <c r="P46" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>5</v>
-      </c>
-      <c r="R46" s="6">
-        <v>9</v>
-      </c>
-      <c r="S46" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H47" s="6">
-        <v>9</v>
-      </c>
-      <c r="I47" s="6">
-        <v>5</v>
-      </c>
+      <c r="I47" s="10">
+        <v>5</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
     </row>
     <row r="48" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H48" s="6">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6">
-        <v>50</v>
-      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
     </row>
     <row r="49" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H49" s="6">
-        <v>1</v>
-      </c>
-      <c r="I49" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H50" s="10">
-        <v>1</v>
-      </c>
-      <c r="I50" s="10">
-        <v>5</v>
-      </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-    </row>
-    <row r="51" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H51" s="10">
-        <v>9</v>
-      </c>
-      <c r="I51" s="10">
-        <v>5</v>
-      </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-    </row>
-    <row r="52" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H52" s="10">
-        <v>0</v>
-      </c>
-      <c r="I52" s="10">
-        <v>0</v>
-      </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-    </row>
-    <row r="53" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H53" s="10">
-        <v>0</v>
-      </c>
-      <c r="I53" s="10">
-        <v>0</v>
-      </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D00AAEB-505E-4FB2-8154-6627B1004587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B62D5A-5814-475B-9C0A-8EFA4154E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1020" windowWidth="23070" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4990" yWindow="2860" windowWidth="23460" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -482,18 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,6 +511,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,36 +825,36 @@
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="8" max="16" width="8.625" style="6"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" customWidth="1"/>
+    <col min="8" max="16" width="8.58203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -869,8 +869,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -895,8 +895,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +918,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -941,8 +941,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -986,8 +986,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1009,8 +1009,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1056,8 +1056,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1082,8 +1082,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1105,8 +1105,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1128,8 +1128,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1173,8 +1173,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1199,8 +1199,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H19" s="6">
         <v>1</v>
       </c>
@@ -1249,15 +1249,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="H20" s="6">
         <v>6</v>
       </c>
@@ -1268,8 +1268,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1294,8 +1294,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1317,20 +1317,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H23" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="H24" s="6">
         <v>2</v>
       </c>
@@ -1344,15 +1344,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="H25" s="6">
         <v>6</v>
       </c>
@@ -1363,20 +1363,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="H26" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H27" s="6">
         <v>2</v>
       </c>
@@ -1390,15 +1390,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
       <c r="H28" s="6">
         <v>7</v>
       </c>
@@ -1409,8 +1409,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1427,8 +1427,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1450,21 +1450,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
       <c r="H31" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1489,8 +1489,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1512,15 +1512,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
       <c r="H34" s="6">
         <v>4</v>
       </c>
@@ -1534,8 +1534,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1563,8 +1563,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1580,15 +1580,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
       <c r="H37" s="6">
         <v>2</v>
       </c>
@@ -1596,8 +1596,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1619,8 +1619,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H40" s="6">
         <v>3</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H41" s="6">
         <v>7</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H42" s="6">
         <v>5</v>
       </c>
@@ -1675,12 +1675,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H43" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H44" s="6">
         <v>1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H45" s="6">
         <v>5</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H46" s="6">
         <v>3</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H47" s="6">
         <v>7</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H48" s="6">
         <v>6</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H49" s="6">
         <v>4</v>
       </c>
@@ -1749,12 +1749,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H50" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H51" s="6">
         <v>2</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H52" s="6">
         <v>8</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H53" s="6">
         <v>5</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H54" s="6">
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H55" s="6">
         <v>7</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H56" s="6">
         <v>5</v>
       </c>
@@ -1825,6 +1825,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1841,11 +1846,6 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,31 +1861,31 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="8.625" style="6"/>
+    <col min="1" max="1" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.58203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
       <c r="B5" s="6">
         <v>2</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" s="6">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="6">
         <v>2</v>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="6">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="11"/>
       <c r="B9" s="6">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="11"/>
       <c r="B12" s="6">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="6">
         <v>2</v>
@@ -2075,7 +2075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="6">
         <v>1</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="6">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="6">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F17" s="6">
         <v>0</v>
       </c>
@@ -2128,12 +2128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F18" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F19" s="6">
         <v>0</v>
       </c>
@@ -2141,12 +2141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F20" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F21" s="6" t="s">
         <v>38</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F22" s="6">
         <v>0</v>
       </c>
@@ -2162,12 +2162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F23" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F24" s="6">
         <v>0</v>
       </c>
@@ -2175,12 +2175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F25" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F26" s="6" t="s">
         <v>38</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F27" s="6">
         <v>0</v>
       </c>
@@ -2196,12 +2196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F28" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F29" s="6">
         <v>0</v>
       </c>
@@ -2209,12 +2209,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F30" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F31" s="6" t="s">
         <v>38</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F32" s="6">
         <v>0</v>
       </c>
@@ -2230,12 +2230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F33" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F34" s="6">
         <v>0</v>
       </c>
@@ -2243,12 +2243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F35" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F36" s="6" t="s">
         <v>38</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F37" s="6">
         <v>0</v>
       </c>
@@ -2264,12 +2264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F38" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F39" s="6" t="s">
         <v>38</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F40" s="6">
         <v>0</v>
       </c>
@@ -2285,12 +2285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F41" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F42" s="6" t="s">
         <v>38</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F43" s="6">
         <v>0</v>
       </c>
@@ -2306,12 +2306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F44" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F45" s="6">
         <v>0</v>
       </c>
@@ -2319,12 +2319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F46" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F47" s="6" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F48" s="6">
         <v>0</v>
       </c>
@@ -2340,12 +2340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F49" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F50" s="6">
         <v>0</v>
       </c>
@@ -2353,12 +2353,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F51" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F52" s="6" t="s">
         <v>38</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F53" s="6">
         <v>0</v>
       </c>
@@ -2374,12 +2374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F54" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F55" s="6">
         <v>0</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F56" s="6">
         <v>3</v>
       </c>
@@ -2405,22 +2405,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:S53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="12"/>
-    <col min="8" max="19" width="8.625" style="6"/>
-    <col min="20" max="16384" width="8.625" style="12"/>
+    <col min="1" max="1" width="14.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" style="12" customWidth="1"/>
+    <col min="3" max="7" width="8.58203125" style="12"/>
+    <col min="8" max="19" width="8.58203125" style="6"/>
+    <col min="20" max="16384" width="8.58203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>60</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -2549,28 +2549,14 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
@@ -2583,24 +2569,14 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>9</v>
       </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>61</v>
       </c>
@@ -2613,24 +2589,14 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -2643,24 +2609,14 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>45</v>
       </c>
@@ -2679,26 +2635,28 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>2</v>
-      </c>
-      <c r="L10" s="6">
-        <v>4</v>
-      </c>
-      <c r="M10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -2711,14 +2669,24 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="6">
+      <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
@@ -2731,14 +2699,24 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
         <v>64</v>
       </c>
@@ -2751,86 +2729,70 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>2</v>
-      </c>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10">
-        <v>2</v>
-      </c>
-      <c r="L14" s="10">
-        <v>5</v>
-      </c>
-      <c r="M14" s="10">
-        <v>2</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H15" s="10">
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H15" s="6">
         <v>9</v>
       </c>
-      <c r="I15" s="10">
-        <v>2</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H16" s="10">
-        <v>2</v>
-      </c>
-      <c r="I16" s="10">
-        <v>80</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="32" t="s">
         <v>52</v>
       </c>
@@ -2839,608 +2801,678 @@
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>3</v>
-      </c>
-      <c r="J18" s="6">
-        <v>3</v>
-      </c>
-      <c r="K18" s="6">
-        <v>3</v>
-      </c>
-      <c r="L18" s="6">
-        <v>4</v>
-      </c>
-      <c r="M18" s="6">
-        <v>3</v>
-      </c>
-      <c r="N18" s="6">
-        <v>5</v>
-      </c>
-      <c r="O18" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>3</v>
+      </c>
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+      <c r="L18" s="10">
+        <v>5</v>
+      </c>
+      <c r="M18" s="10">
+        <v>2</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="H19" s="6">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="10">
         <v>9</v>
       </c>
-      <c r="I19" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I19" s="10">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="10">
+        <v>2</v>
+      </c>
+      <c r="I20" s="10">
+        <v>80</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4</v>
+      </c>
+      <c r="M22" s="6">
+        <v>3</v>
+      </c>
+      <c r="N22" s="6">
+        <v>5</v>
+      </c>
+      <c r="O22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="6">
+        <v>9</v>
+      </c>
+      <c r="I23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>3</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>4</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="H22" s="10">
-        <v>2</v>
-      </c>
-      <c r="I22" s="10">
-        <v>3</v>
-      </c>
-      <c r="J22" s="10">
-        <v>5</v>
-      </c>
-      <c r="K22" s="10">
-        <v>3</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>5</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="H23" s="10">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H26" s="10">
+        <v>2</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3</v>
+      </c>
+      <c r="J26" s="10">
+        <v>5</v>
+      </c>
+      <c r="K26" s="10">
+        <v>3</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H27" s="10">
         <v>9</v>
       </c>
-      <c r="I23" s="10">
-        <v>3</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="10">
-        <v>3</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="I27" s="10">
+        <v>3</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H28" s="10">
+        <v>3</v>
+      </c>
+      <c r="I28" s="10">
         <v>80</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H26" s="6">
-        <v>2</v>
-      </c>
-      <c r="I26" s="6">
-        <v>3</v>
-      </c>
-      <c r="J26" s="6">
-        <v>4</v>
-      </c>
-      <c r="K26" s="6">
-        <v>3</v>
-      </c>
-      <c r="L26" s="6">
-        <v>5</v>
-      </c>
-      <c r="M26" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H27" s="6">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H30" s="6">
+        <v>2</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4</v>
+      </c>
+      <c r="K30" s="6">
+        <v>3</v>
+      </c>
+      <c r="L30" s="6">
+        <v>5</v>
+      </c>
+      <c r="M30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H31" s="6">
         <v>9</v>
       </c>
-      <c r="I27" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H28" s="6">
-        <v>4</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="I31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H32" s="6">
+        <v>4</v>
+      </c>
+      <c r="I32" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10">
-        <v>4</v>
-      </c>
-      <c r="J30" s="10">
-        <v>2</v>
-      </c>
-      <c r="K30" s="10">
-        <v>4</v>
-      </c>
-      <c r="L30" s="10">
-        <v>4</v>
-      </c>
-      <c r="M30" s="10">
-        <v>4</v>
-      </c>
-      <c r="N30" s="10">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>4</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10">
+        <v>4</v>
+      </c>
+      <c r="L34" s="10">
+        <v>4</v>
+      </c>
+      <c r="M34" s="10">
+        <v>4</v>
+      </c>
+      <c r="N34" s="10">
         <v>6</v>
       </c>
-      <c r="O30" s="10">
-        <v>4</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H31" s="10">
+      <c r="O34" s="10">
+        <v>4</v>
+      </c>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H35" s="10">
         <v>9</v>
       </c>
-      <c r="I31" s="10">
-        <v>4</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H32" s="10">
-        <v>5</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="I35" s="10">
+        <v>4</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H36" s="10">
+        <v>5</v>
+      </c>
+      <c r="I36" s="10">
         <v>30</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-    </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H33" s="10">
-        <v>2</v>
-      </c>
-      <c r="I33" s="10">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+    </row>
+    <row r="37" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H37" s="10">
+        <v>2</v>
+      </c>
+      <c r="I37" s="10">
         <v>300</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H34" s="6">
-        <v>2</v>
-      </c>
-      <c r="I34" s="6">
-        <v>4</v>
-      </c>
-      <c r="J34" s="6">
-        <v>3</v>
-      </c>
-      <c r="K34" s="6">
-        <v>4</v>
-      </c>
-      <c r="L34" s="6">
-        <v>4</v>
-      </c>
-      <c r="M34" s="6">
-        <v>4</v>
-      </c>
-      <c r="N34" s="6">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+    </row>
+    <row r="38" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H38" s="6">
+        <v>2</v>
+      </c>
+      <c r="I38" s="6">
+        <v>4</v>
+      </c>
+      <c r="J38" s="6">
+        <v>3</v>
+      </c>
+      <c r="K38" s="6">
+        <v>4</v>
+      </c>
+      <c r="L38" s="6">
+        <v>4</v>
+      </c>
+      <c r="M38" s="6">
+        <v>4</v>
+      </c>
+      <c r="N38" s="6">
         <v>7</v>
       </c>
-      <c r="O34" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H35" s="6">
+      <c r="O38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H39" s="6">
         <v>9</v>
       </c>
-      <c r="I35" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H36" s="6">
-        <v>3</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="I39" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H40" s="6">
+        <v>3</v>
+      </c>
+      <c r="I40" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H37" s="6">
-        <v>3</v>
-      </c>
-      <c r="I37" s="6">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H41" s="6">
+        <v>3</v>
+      </c>
+      <c r="I41" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H38" s="10">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10">
-        <v>4</v>
-      </c>
-      <c r="J38" s="10">
-        <v>3</v>
-      </c>
-      <c r="K38" s="10">
-        <v>4</v>
-      </c>
-      <c r="L38" s="10">
-        <v>4</v>
-      </c>
-      <c r="M38" s="10">
-        <v>4</v>
-      </c>
-      <c r="N38" s="10">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H42" s="10">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10">
+        <v>4</v>
+      </c>
+      <c r="J42" s="10">
+        <v>3</v>
+      </c>
+      <c r="K42" s="10">
+        <v>4</v>
+      </c>
+      <c r="L42" s="10">
+        <v>4</v>
+      </c>
+      <c r="M42" s="10">
+        <v>4</v>
+      </c>
+      <c r="N42" s="10">
         <v>6</v>
       </c>
-      <c r="O38" s="10">
-        <v>4</v>
-      </c>
-      <c r="P38" s="10">
+      <c r="O42" s="10">
+        <v>4</v>
+      </c>
+      <c r="P42" s="10">
         <v>8</v>
       </c>
-      <c r="Q38" s="10">
-        <v>4</v>
-      </c>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-    </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H39" s="10">
+      <c r="Q42" s="10">
+        <v>4</v>
+      </c>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+    </row>
+    <row r="43" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H43" s="10">
         <v>9</v>
       </c>
-      <c r="I39" s="10">
-        <v>4</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H40" s="10">
-        <v>2</v>
-      </c>
-      <c r="I40" s="10">
+      <c r="I43" s="10">
+        <v>4</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+    </row>
+    <row r="44" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H44" s="10">
+        <v>2</v>
+      </c>
+      <c r="I44" s="10">
         <v>120</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-    </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H41" s="10">
-        <v>2</v>
-      </c>
-      <c r="I41" s="10">
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+    </row>
+    <row r="45" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H45" s="10">
+        <v>2</v>
+      </c>
+      <c r="I45" s="10">
         <v>240</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H42" s="6">
-        <v>2</v>
-      </c>
-      <c r="I42" s="6">
-        <v>5</v>
-      </c>
-      <c r="J42" s="6">
-        <v>3</v>
-      </c>
-      <c r="K42" s="6">
-        <v>5</v>
-      </c>
-      <c r="L42" s="6">
-        <v>4</v>
-      </c>
-      <c r="M42" s="6">
-        <v>5</v>
-      </c>
-      <c r="N42" s="6">
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+    </row>
+    <row r="46" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H46" s="6">
+        <v>2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>5</v>
+      </c>
+      <c r="J46" s="6">
+        <v>3</v>
+      </c>
+      <c r="K46" s="6">
+        <v>5</v>
+      </c>
+      <c r="L46" s="6">
+        <v>4</v>
+      </c>
+      <c r="M46" s="6">
+        <v>5</v>
+      </c>
+      <c r="N46" s="6">
         <v>7</v>
       </c>
-      <c r="O42" s="6">
-        <v>5</v>
-      </c>
-      <c r="P42" s="6">
+      <c r="O46" s="6">
+        <v>5</v>
+      </c>
+      <c r="P46" s="6">
         <v>8</v>
       </c>
-      <c r="Q42" s="6">
-        <v>5</v>
-      </c>
-      <c r="R42" s="6">
+      <c r="Q46" s="6">
+        <v>5</v>
+      </c>
+      <c r="R46" s="6">
         <v>9</v>
       </c>
-      <c r="S42" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H43" s="6">
+      <c r="S46" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H47" s="6">
         <v>9</v>
       </c>
-      <c r="I43" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="I47" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H45" s="6">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6">
+    <row r="49" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H46" s="10">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10">
-        <v>5</v>
-      </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-    </row>
-    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H47" s="10">
+    <row r="50" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="10">
+        <v>5</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+    </row>
+    <row r="51" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H51" s="10">
         <v>9</v>
       </c>
-      <c r="I47" s="10">
-        <v>5</v>
-      </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-      <c r="I48" s="10">
-        <v>0</v>
-      </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-    </row>
-    <row r="49" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-      <c r="I49" s="10">
-        <v>0</v>
-      </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
+      <c r="I51" s="10">
+        <v>5</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+    </row>
+    <row r="52" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+    </row>
+    <row r="53" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B62D5A-5814-475B-9C0A-8EFA4154E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF02B1D-7D23-432B-9971-A4387AFAF10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4990" yWindow="2860" windowWidth="23460" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="2820" windowWidth="23460" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -482,6 +482,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,18 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,25 +834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="27"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="27"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="27"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1250,14 +1250,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="H20" s="6">
         <v>6</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="18"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,14 +1323,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="H24" s="6">
         <v>2</v>
       </c>
@@ -1345,14 +1345,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="H25" s="6">
         <v>6</v>
       </c>
@@ -1364,14 +1364,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
       <c r="H26" s="6">
         <v>7</v>
       </c>
@@ -1391,14 +1391,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
       <c r="H28" s="6">
         <v>7</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1451,20 +1451,20 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="H31" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="18"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1513,14 +1513,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="H34" s="6">
         <v>4</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="18"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1581,14 +1581,14 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="H37" s="6">
         <v>2</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="18"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,11 +1825,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1846,6 +1841,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1876,14 +1876,14 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
@@ -2407,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:S53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2750,13 +2750,13 @@
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="H14" s="6">
         <v>1</v>
       </c>
@@ -2812,13 +2812,13 @@
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="H18" s="10">
         <v>1</v>
       </c>
@@ -2848,13 +2848,13 @@
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="H19" s="10">
         <v>9</v>
       </c>
@@ -2876,13 +2876,13 @@
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
       <c r="H20" s="10">
         <v>2</v>
       </c>
@@ -2904,13 +2904,13 @@
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="H21" s="10">
         <v>0</v>
       </c>
@@ -2932,13 +2932,13 @@
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="H22" s="6">
         <v>1</v>
       </c>
@@ -2968,13 +2968,13 @@
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="H23" s="6">
         <v>9</v>
       </c>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF02B1D-7D23-432B-9971-A4387AFAF10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EEAA5E-2EEA-48F0-A947-16FD33A0FF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="2820" windowWidth="23460" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="480" windowWidth="24555" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -482,18 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,6 +511,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,42 +819,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" customWidth="1"/>
-    <col min="8" max="16" width="8.58203125" style="6"/>
+    <col min="3" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="8" max="16" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -869,8 +869,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -895,8 +895,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +918,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -941,8 +941,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -986,8 +986,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1009,8 +1009,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1056,8 +1056,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1082,8 +1082,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1105,8 +1105,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1128,8 +1128,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1173,8 +1173,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1199,8 +1199,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H19" s="6">
         <v>1</v>
       </c>
@@ -1249,15 +1249,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="H20" s="6">
         <v>6</v>
       </c>
@@ -1268,8 +1268,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1294,8 +1294,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1317,20 +1317,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H23" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="H24" s="6">
         <v>2</v>
       </c>
@@ -1344,15 +1344,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="H25" s="6">
         <v>6</v>
       </c>
@@ -1363,20 +1363,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="H26" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H27" s="6">
         <v>2</v>
       </c>
@@ -1390,15 +1390,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
       <c r="H28" s="6">
         <v>7</v>
       </c>
@@ -1409,8 +1409,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1427,8 +1427,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1450,21 +1450,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
       <c r="H31" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1489,8 +1489,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="22"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1512,15 +1512,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
       <c r="H34" s="6">
         <v>4</v>
       </c>
@@ -1534,8 +1534,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1563,8 +1563,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="22"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1580,15 +1580,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
       <c r="H37" s="6">
         <v>2</v>
       </c>
@@ -1596,8 +1596,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1619,8 +1619,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="22"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H40" s="6">
         <v>3</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H41" s="6">
         <v>7</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H42" s="6">
         <v>5</v>
       </c>
@@ -1675,12 +1675,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H43" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H44" s="6">
         <v>1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H45" s="6">
         <v>5</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H46" s="6">
         <v>3</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H47" s="6">
         <v>7</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H48" s="6">
         <v>6</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H49" s="6">
         <v>4</v>
       </c>
@@ -1749,12 +1749,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H50" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H51" s="6">
         <v>2</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H52" s="6">
         <v>8</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H53" s="6">
         <v>5</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H54" s="6">
         <v>4</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H55" s="6">
         <v>7</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H56" s="6">
         <v>5</v>
       </c>
@@ -1821,10 +1821,124 @@
       </c>
       <c r="J56" s="6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H57" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H59" s="6">
+        <v>4</v>
+      </c>
+      <c r="I59" s="6">
+        <v>4</v>
+      </c>
+      <c r="J59" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H60" s="6">
+        <v>2</v>
+      </c>
+      <c r="I60" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H61" s="6">
+        <v>5</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1</v>
+      </c>
+      <c r="J61" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H62" s="6">
+        <v>4</v>
+      </c>
+      <c r="I62" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H63" s="6">
+        <v>4</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+      <c r="J63" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H64" s="6">
+        <v>5</v>
+      </c>
+      <c r="I64" s="6">
+        <v>5</v>
+      </c>
+      <c r="J64" s="6">
+        <v>6</v>
+      </c>
+      <c r="K64" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H65" s="6">
+        <v>6</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H66" s="6">
+        <v>7</v>
+      </c>
+      <c r="I66" s="6">
+        <v>5</v>
+      </c>
+      <c r="J66" s="6">
+        <v>8</v>
+      </c>
+      <c r="K66" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H67" s="6">
+        <v>5</v>
+      </c>
+      <c r="I67" s="6">
+        <v>3</v>
+      </c>
+      <c r="J67" s="6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -1841,11 +1955,6 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,35 +1966,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="8.58203125" style="6"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -1903,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -1921,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
@@ -1934,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="6">
         <v>2</v>
@@ -1950,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="6">
         <v>1</v>
@@ -1964,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="6">
         <v>2</v>
@@ -1977,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="6">
         <v>1</v>
@@ -1991,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="6">
         <v>1</v>
@@ -2009,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
@@ -2027,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
@@ -2045,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="6">
         <v>1</v>
@@ -2059,7 +2168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="6">
         <v>2</v>
@@ -2075,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="6">
         <v>1</v>
@@ -2089,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="6">
         <v>2</v>
@@ -2102,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="6">
         <v>1</v>
@@ -2120,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6">
         <v>0</v>
       </c>
@@ -2128,12 +2237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="6">
         <v>0</v>
       </c>
@@ -2141,12 +2250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="6" t="s">
         <v>38</v>
       </c>
@@ -2154,7 +2263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" s="6">
         <v>0</v>
       </c>
@@ -2162,12 +2271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
         <v>0</v>
       </c>
@@ -2175,12 +2284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F26" s="6" t="s">
         <v>38</v>
       </c>
@@ -2188,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="6">
         <v>0</v>
       </c>
@@ -2196,12 +2305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F29" s="6">
         <v>0</v>
       </c>
@@ -2209,12 +2318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F31" s="6" t="s">
         <v>38</v>
       </c>
@@ -2222,7 +2331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F32" s="6">
         <v>0</v>
       </c>
@@ -2230,12 +2339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="6">
         <v>0</v>
       </c>
@@ -2243,12 +2352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F36" s="6" t="s">
         <v>38</v>
       </c>
@@ -2256,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F37" s="6">
         <v>0</v>
       </c>
@@ -2264,12 +2373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F38" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F39" s="6" t="s">
         <v>38</v>
       </c>
@@ -2277,7 +2386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F40" s="6">
         <v>0</v>
       </c>
@@ -2285,12 +2394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F41" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F42" s="6" t="s">
         <v>38</v>
       </c>
@@ -2298,7 +2407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F43" s="6">
         <v>0</v>
       </c>
@@ -2306,12 +2415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F44" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
         <v>0</v>
       </c>
@@ -2319,12 +2428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F46" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F47" s="6" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F48" s="6">
         <v>0</v>
       </c>
@@ -2340,12 +2449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F50" s="6">
         <v>0</v>
       </c>
@@ -2353,12 +2462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F52" s="6" t="s">
         <v>38</v>
       </c>
@@ -2366,7 +2475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" s="6">
         <v>0</v>
       </c>
@@ -2374,12 +2483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F54" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F55" s="6">
         <v>0</v>
       </c>
@@ -2387,9 +2496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2408,19 +2517,19 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" style="12" customWidth="1"/>
-    <col min="3" max="7" width="8.58203125" style="12"/>
-    <col min="8" max="19" width="8.58203125" style="6"/>
-    <col min="20" max="16384" width="8.58203125" style="12"/>
+    <col min="1" max="1" width="14.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
+    <col min="3" max="7" width="8.625" style="12"/>
+    <col min="8" max="19" width="8.625" style="6"/>
+    <col min="20" max="16384" width="8.625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
@@ -2444,7 +2553,7 @@
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
@@ -2490,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
@@ -2510,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>60</v>
       </c>
@@ -2530,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -2556,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
@@ -2576,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>61</v>
       </c>
@@ -2596,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -2616,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>45</v>
       </c>
@@ -2656,7 +2765,7 @@
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -2686,7 +2795,7 @@
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
@@ -2716,7 +2825,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>64</v>
       </c>
@@ -2746,17 +2855,17 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="H14" s="6">
         <v>1</v>
       </c>
@@ -2776,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H15" s="6">
         <v>9</v>
       </c>
@@ -2784,7 +2893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H16" s="6">
         <v>0</v>
       </c>
@@ -2792,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>52</v>
       </c>
@@ -2808,17 +2917,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="H18" s="10">
         <v>1</v>
       </c>
@@ -2844,17 +2953,17 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="H19" s="10">
         <v>9</v>
       </c>
@@ -2872,17 +2981,17 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="H20" s="10">
         <v>2</v>
       </c>
@@ -2900,17 +3009,17 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="H21" s="10">
         <v>0</v>
       </c>
@@ -2928,17 +3037,17 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
       <c r="H22" s="6">
         <v>1</v>
       </c>
@@ -2964,17 +3073,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="H23" s="6">
         <v>9</v>
       </c>
@@ -2982,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H24" s="6">
         <v>1</v>
       </c>
@@ -2990,7 +3099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H25" s="6">
         <v>0</v>
       </c>
@@ -2998,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H26" s="10">
         <v>2</v>
       </c>
@@ -3020,7 +3129,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H27" s="10">
         <v>9</v>
       </c>
@@ -3038,7 +3147,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H28" s="10">
         <v>3</v>
       </c>
@@ -3056,7 +3165,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H29" s="10">
         <v>0</v>
       </c>
@@ -3074,7 +3183,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H30" s="6">
         <v>2</v>
       </c>
@@ -3094,7 +3203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H31" s="6">
         <v>9</v>
       </c>
@@ -3102,7 +3211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H32" s="6">
         <v>4</v>
       </c>
@@ -3110,7 +3219,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33" s="6">
         <v>0</v>
       </c>
@@ -3118,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34" s="10">
         <v>1</v>
       </c>
@@ -3148,7 +3257,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35" s="10">
         <v>9</v>
       </c>
@@ -3166,7 +3275,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36" s="10">
         <v>5</v>
       </c>
@@ -3184,7 +3293,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37" s="10">
         <v>2</v>
       </c>
@@ -3202,7 +3311,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38" s="6">
         <v>2</v>
       </c>
@@ -3228,7 +3337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39" s="6">
         <v>9</v>
       </c>
@@ -3236,7 +3345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40" s="6">
         <v>3</v>
       </c>
@@ -3244,7 +3353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41" s="6">
         <v>3</v>
       </c>
@@ -3252,7 +3361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H42" s="10">
         <v>1</v>
       </c>
@@ -3286,7 +3395,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H43" s="10">
         <v>9</v>
       </c>
@@ -3304,7 +3413,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H44" s="10">
         <v>2</v>
       </c>
@@ -3322,7 +3431,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H45" s="10">
         <v>2</v>
       </c>
@@ -3340,7 +3449,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H46" s="6">
         <v>2</v>
       </c>
@@ -3378,7 +3487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H47" s="6">
         <v>9</v>
       </c>
@@ -3386,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H48" s="6">
         <v>1</v>
       </c>
@@ -3394,7 +3503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="49" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H49" s="6">
         <v>1</v>
       </c>
@@ -3402,25 +3511,45 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="50" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H50" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="10">
         <v>5</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-    </row>
-    <row r="51" spans="8:19" x14ac:dyDescent="0.45">
+      <c r="J50" s="10">
+        <v>4</v>
+      </c>
+      <c r="K50" s="10">
+        <v>5</v>
+      </c>
+      <c r="L50" s="10">
+        <v>5</v>
+      </c>
+      <c r="M50" s="10">
+        <v>5</v>
+      </c>
+      <c r="N50" s="10">
+        <v>6</v>
+      </c>
+      <c r="O50" s="10">
+        <v>5</v>
+      </c>
+      <c r="P50" s="10">
+        <v>7</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>5</v>
+      </c>
+      <c r="R50" s="10">
+        <v>8</v>
+      </c>
+      <c r="S50" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H51" s="10">
         <v>9</v>
       </c>
@@ -3438,12 +3567,12 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="52" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H52" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" s="10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -3456,12 +3585,12 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="8:19" x14ac:dyDescent="0.45">
+    <row r="53" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H53" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" s="10">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EEAA5E-2EEA-48F0-A947-16FD33A0FF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CD8FEB-BF4E-4491-9E37-54DD414BAA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="480" windowWidth="24555" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="270" windowWidth="24555" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -819,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,7 +866,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="H2" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -889,10 +889,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="6">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -909,13 +906,13 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -938,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="6">
-        <v>2</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -955,15 +952,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="H6" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>3</v>
-      </c>
-      <c r="K6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -977,13 +968,13 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1006,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="6">
-        <v>3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1023,16 +1014,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6">
-        <v>3</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1047,10 +1029,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="H10" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="6">
         <v>5</v>
@@ -1076,10 +1058,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="6">
-        <v>4</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1096,13 +1075,10 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1125,7 +1101,13 @@
         <v>5</v>
       </c>
       <c r="H13" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1142,16 +1124,10 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="H14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="6">
-        <v>2</v>
-      </c>
-      <c r="J14" s="6">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1164,13 +1140,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="H15" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
       </c>
       <c r="J15" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1193,13 +1169,10 @@
         <v>5</v>
       </c>
       <c r="H16" s="6">
-        <v>5</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
@@ -1213,16 +1186,10 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="H17" s="6">
-        <v>7</v>
-      </c>
-      <c r="I17" s="6">
-        <v>3</v>
-      </c>
-      <c r="J17" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1234,22 +1201,19 @@
       <c r="H18" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>2</v>
-      </c>
-      <c r="J19" s="6">
-        <v>3</v>
-      </c>
-      <c r="K19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
@@ -1259,16 +1223,13 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="H20" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
@@ -1282,19 +1243,16 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="6">
-        <v>5</v>
-      </c>
-      <c r="K21" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -1308,21 +1266,24 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="H22" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H23" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
@@ -1332,19 +1293,10 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="H24" s="6">
-        <v>2</v>
-      </c>
-      <c r="I24" s="6">
-        <v>3</v>
-      </c>
-      <c r="J24" s="6">
-        <v>5</v>
-      </c>
-      <c r="K24" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
@@ -1354,16 +1306,10 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="H25" s="6">
-        <v>6</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
@@ -1373,24 +1319,21 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="H26" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="6">
+        <v>6</v>
+      </c>
+      <c r="J26" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H27" s="6">
-        <v>2</v>
-      </c>
-      <c r="I27" s="6">
-        <v>3</v>
-      </c>
-      <c r="J27" s="6">
-        <v>5</v>
-      </c>
-      <c r="K27" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
@@ -1400,16 +1343,13 @@
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="H28" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
@@ -1421,13 +1361,16 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="H29" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -1441,16 +1384,13 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="H30" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I30" s="6">
-        <v>1</v>
-      </c>
-      <c r="J30" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
@@ -1460,10 +1400,16 @@
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="H31" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
@@ -1477,16 +1423,10 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="H32" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" s="6">
-        <v>4</v>
-      </c>
-      <c r="J32" s="6">
-        <v>2</v>
-      </c>
-      <c r="K32" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1503,13 +1443,13 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="H33" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1522,16 +1462,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="H34" s="6">
-        <v>4</v>
-      </c>
-      <c r="I34" s="6">
-        <v>4</v>
-      </c>
-      <c r="J34" s="6">
-        <v>6</v>
-      </c>
-      <c r="K34" s="6">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1554,13 +1485,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="6">
-        <v>7</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1577,7 +1502,13 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="H36" s="6">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="I36" s="6">
+        <v>4</v>
+      </c>
+      <c r="J36" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1590,9 +1521,6 @@
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
       <c r="H37" s="6">
-        <v>2</v>
-      </c>
-      <c r="I37" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1610,13 +1538,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="H38" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38" s="6">
-        <v>3</v>
-      </c>
-      <c r="J38" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1636,250 +1561,232 @@
         <v>3</v>
       </c>
       <c r="I39" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" s="6">
-        <v>4</v>
-      </c>
-      <c r="K39" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H40" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="6">
+        <v>3</v>
+      </c>
+      <c r="K40" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H41" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I41" s="6">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H42" s="6">
-        <v>5</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1</v>
-      </c>
-      <c r="J42" s="6">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H43" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H44" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J44" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H45" s="6">
         <v>5</v>
       </c>
-      <c r="I45" s="6">
-        <v>3</v>
-      </c>
-      <c r="J45" s="6">
-        <v>4</v>
-      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H46" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K46" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H47" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I47" s="6">
         <v>1</v>
       </c>
       <c r="J47" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H48" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I48" s="6">
-        <v>4</v>
-      </c>
-      <c r="J48" s="6">
-        <v>8</v>
-      </c>
-      <c r="K48" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H49" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
       </c>
       <c r="J49" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H50" s="6">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H51" s="6">
-        <v>2</v>
-      </c>
-      <c r="I51" s="6">
-        <v>5</v>
-      </c>
-      <c r="J51" s="6">
-        <v>3</v>
-      </c>
-      <c r="K51" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H52" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I52" s="6">
         <v>5</v>
       </c>
       <c r="J52" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H53" s="6">
-        <v>5</v>
-      </c>
-      <c r="I53" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H54" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" s="6">
+        <v>2</v>
+      </c>
+      <c r="K54" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H55" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I55" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J55" s="6">
-        <v>8</v>
-      </c>
-      <c r="K55" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H56" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J56" s="6">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K56" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H57" s="6">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H58" s="6">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H59" s="6">
-        <v>4</v>
-      </c>
-      <c r="I59" s="6">
-        <v>4</v>
-      </c>
-      <c r="J59" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H60" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60" s="6">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="J60" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H61" s="6">
-        <v>5</v>
-      </c>
-      <c r="I61" s="6">
-        <v>1</v>
-      </c>
-      <c r="J61" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H62" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62" s="6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="J62" s="6">
+        <v>2</v>
+      </c>
+      <c r="K62" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H63" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" s="6">
         <v>1</v>
       </c>
       <c r="J63" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="8:11" x14ac:dyDescent="0.3">
@@ -1887,49 +1794,567 @@
         <v>5</v>
       </c>
       <c r="I64" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J64" s="6">
         <v>6</v>
       </c>
       <c r="K64" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H65" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I65" s="6">
         <v>1</v>
       </c>
       <c r="J65" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H66" s="6">
-        <v>7</v>
-      </c>
-      <c r="I66" s="6">
-        <v>5</v>
-      </c>
-      <c r="J66" s="6">
-        <v>8</v>
-      </c>
-      <c r="K66" s="6">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H67" s="6">
-        <v>5</v>
-      </c>
-      <c r="I67" s="6">
-        <v>3</v>
-      </c>
-      <c r="J67" s="6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H68" s="6">
+        <v>3</v>
+      </c>
+      <c r="I68" s="6">
+        <v>3</v>
+      </c>
+      <c r="J68" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H69" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H70" s="6">
+        <v>2</v>
+      </c>
+      <c r="I70" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H71" s="6">
+        <v>3</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1</v>
+      </c>
+      <c r="J71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H72" s="6">
+        <v>3</v>
+      </c>
+      <c r="I72" s="6">
+        <v>4</v>
+      </c>
+      <c r="J72" s="6">
+        <v>4</v>
+      </c>
+      <c r="K72" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H73" s="6">
+        <v>3</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1</v>
+      </c>
+      <c r="J73" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H74" s="6">
+        <v>6</v>
+      </c>
+      <c r="I74" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H75" s="6">
+        <v>3</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1</v>
+      </c>
+      <c r="J75" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H76" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H78" s="6">
+        <v>5</v>
+      </c>
+      <c r="I78" s="6">
+        <v>5</v>
+      </c>
+      <c r="J78" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H79" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H80" s="6">
+        <v>1</v>
+      </c>
+      <c r="I80" s="6">
+        <v>4</v>
+      </c>
+      <c r="J80" s="6">
+        <v>3</v>
+      </c>
+      <c r="K80" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H81" s="6">
+        <v>3</v>
+      </c>
+      <c r="I81" s="6">
+        <v>1</v>
+      </c>
+      <c r="J81" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H82" s="6">
+        <v>4</v>
+      </c>
+      <c r="I82" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H83" s="6">
+        <v>3</v>
+      </c>
+      <c r="I83" s="6">
+        <v>1</v>
+      </c>
+      <c r="J83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H84" s="6">
+        <v>6</v>
+      </c>
+      <c r="I84" s="6">
+        <v>4</v>
+      </c>
+      <c r="J84" s="6">
+        <v>7</v>
+      </c>
+      <c r="K84" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H85" s="6">
+        <v>3</v>
+      </c>
+      <c r="I85" s="6">
+        <v>1</v>
+      </c>
+      <c r="J85" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H86" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H88" s="6">
+        <v>4</v>
+      </c>
+      <c r="I88" s="6">
+        <v>4</v>
+      </c>
+      <c r="J88" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H89" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H90" s="6">
+        <v>2</v>
+      </c>
+      <c r="I90" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H91" s="6">
+        <v>3</v>
+      </c>
+      <c r="I91" s="6">
+        <v>1</v>
+      </c>
+      <c r="J91" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H92" s="6">
+        <v>4</v>
+      </c>
+      <c r="I92" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H93" s="6">
+        <v>3</v>
+      </c>
+      <c r="I93" s="6">
+        <v>1</v>
+      </c>
+      <c r="J93" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H94" s="6">
+        <v>5</v>
+      </c>
+      <c r="I94" s="6">
+        <v>4</v>
+      </c>
+      <c r="J94" s="6">
+        <v>6</v>
+      </c>
+      <c r="K94" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H95" s="6">
+        <v>3</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
+      <c r="J95" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H96" s="6">
+        <v>8</v>
+      </c>
+      <c r="I96" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H97" s="6">
+        <v>6</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+      <c r="J97" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H98" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H100" s="6">
+        <v>4</v>
+      </c>
+      <c r="I100" s="6">
+        <v>4</v>
+      </c>
+      <c r="J100" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H101" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H102" s="6">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H103" s="6">
+        <v>3</v>
+      </c>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+      <c r="J103" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H104" s="6">
+        <v>4</v>
+      </c>
+      <c r="I104" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H105" s="6">
+        <v>3</v>
+      </c>
+      <c r="I105" s="6">
+        <v>1</v>
+      </c>
+      <c r="J105" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H106" s="6">
+        <v>5</v>
+      </c>
+      <c r="I106" s="6">
+        <v>5</v>
+      </c>
+      <c r="J106" s="6">
+        <v>6</v>
+      </c>
+      <c r="K106" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H107" s="6">
+        <v>3</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1</v>
+      </c>
+      <c r="J107" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H108" s="6">
+        <v>7</v>
+      </c>
+      <c r="I108" s="6">
+        <v>5</v>
+      </c>
+      <c r="J108" s="6">
+        <v>8</v>
+      </c>
+      <c r="K108" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H109" s="6">
+        <v>4</v>
+      </c>
+      <c r="I109" s="6">
+        <v>1</v>
+      </c>
+      <c r="J109" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H110" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H112" s="6">
+        <v>3</v>
+      </c>
+      <c r="I112" s="6">
+        <v>3</v>
+      </c>
+      <c r="J112" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H113" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H114" s="6">
+        <v>2</v>
+      </c>
+      <c r="I114" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H115" s="6">
+        <v>3</v>
+      </c>
+      <c r="I115" s="6">
+        <v>1</v>
+      </c>
+      <c r="J115" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H116" s="6">
+        <v>3</v>
+      </c>
+      <c r="I116" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H117" s="6">
+        <v>3</v>
+      </c>
+      <c r="I117" s="6">
+        <v>1</v>
+      </c>
+      <c r="J117" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H118" s="6">
+        <v>6</v>
+      </c>
+      <c r="I118" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H119" s="6">
+        <v>3</v>
+      </c>
+      <c r="I119" s="6">
+        <v>1</v>
+      </c>
+      <c r="J119" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H120" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H121" s="6">
+        <v>7</v>
+      </c>
+      <c r="I121" s="6">
+        <v>5</v>
+      </c>
+      <c r="J121" s="6">
+        <v>8</v>
+      </c>
+      <c r="K121" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H122" s="6">
+        <v>4</v>
+      </c>
+      <c r="I122" s="6">
+        <v>1</v>
+      </c>
+      <c r="J122" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H123" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H124" s="6">
+        <v>9</v>
+      </c>
+      <c r="I124" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H125" s="6">
+        <v>7</v>
+      </c>
+      <c r="I125" s="6">
+        <v>1</v>
+      </c>
+      <c r="J125" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1964,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2040,7 +2465,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2052,11 +2477,8 @@
         <v>3</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
+      <c r="F5" s="6">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2066,11 +2488,11 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="F6" s="6">
-        <v>0</v>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2083,7 +2505,10 @@
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2093,11 +2518,8 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
+      <c r="F8" s="6">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2112,10 +2534,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2129,8 +2548,8 @@
         <v>37</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="F10" s="6">
-        <v>1</v>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="6">
         <v>2</v>
@@ -2162,10 +2581,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2177,11 +2593,8 @@
         <v>3</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="6">
-        <v>3</v>
+      <c r="F13" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2191,11 +2604,11 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="F14" s="6">
-        <v>0</v>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G14" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2208,7 +2621,10 @@
       </c>
       <c r="D15" s="6"/>
       <c r="F15" s="6">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2222,23 +2638,20 @@
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4</v>
+      <c r="F16" s="6">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="6">
+      <c r="F18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2252,15 +2665,12 @@
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="6">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="6">
-        <v>5</v>
+      <c r="F21" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
@@ -2273,41 +2683,38 @@
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" s="6">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F25" s="6">
+      <c r="F25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="6" t="s">
-        <v>38</v>
+      <c r="F26" s="6">
+        <v>0</v>
       </c>
       <c r="G26" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.3">
@@ -2320,41 +2727,38 @@
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="6">
         <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" s="6">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.3">
@@ -2362,7 +2766,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.3">
@@ -2375,15 +2779,12 @@
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F38" s="6">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="6">
-        <v>9</v>
+      <c r="F39" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.3">
@@ -2396,96 +2797,90 @@
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F41" s="6">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
       <c r="G43" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F44" s="6">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F46" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="6" t="s">
-        <v>38</v>
+      <c r="F47" s="6">
+        <v>0</v>
       </c>
       <c r="G47" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F48" s="6">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="6">
-        <v>0</v>
+      <c r="F50" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G50" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" s="6">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="6">
-        <v>12</v>
+      <c r="F52" s="6">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" s="6">
-        <v>0</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="6">
-        <v>12</v>
+      <c r="F54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.3">
@@ -2498,7 +2893,113 @@
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="6">
         <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="6">
+        <v>13</v>
+      </c>
+      <c r="G73" s="6">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2517,7 +3018,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2572,6 +3073,9 @@
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
       <c r="H2" s="6">
         <v>3</v>
       </c>
@@ -2658,10 +3162,19 @@
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
       <c r="H6" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2744,6 +3257,9 @@
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="12">
+        <v>2</v>
+      </c>
       <c r="H10" s="10">
         <v>1</v>
       </c>
@@ -2751,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" s="10">
         <v>1</v>
@@ -2866,6 +3382,9 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
+      <c r="G14" s="12">
+        <v>3</v>
+      </c>
       <c r="H14" s="6">
         <v>1</v>
       </c>
@@ -2873,13 +3392,13 @@
         <v>2</v>
       </c>
       <c r="J14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="6">
         <v>2</v>
       </c>
       <c r="L14" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" s="6">
         <v>2</v>
@@ -2928,8 +3447,11 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
+      <c r="G18" s="12">
+        <v>4</v>
+      </c>
       <c r="H18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="10">
         <v>2</v>
@@ -3048,8 +3570,11 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
+      <c r="G22" s="12">
+        <v>5</v>
+      </c>
       <c r="H22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="6">
         <v>3</v>
@@ -3061,15 +3586,9 @@
         <v>3</v>
       </c>
       <c r="L22" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" s="6">
-        <v>3</v>
-      </c>
-      <c r="N22" s="6">
-        <v>5</v>
-      </c>
-      <c r="O22" s="6">
         <v>3</v>
       </c>
     </row>
@@ -3108,22 +3627,33 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G26" s="12">
+        <v>6</v>
+      </c>
       <c r="H26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="10">
         <v>3</v>
       </c>
       <c r="J26" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K26" s="10">
         <v>3</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="L26" s="10">
+        <v>3</v>
+      </c>
+      <c r="M26" s="10">
+        <v>3</v>
+      </c>
+      <c r="N26" s="10">
+        <v>4</v>
+      </c>
+      <c r="O26" s="10">
+        <v>3</v>
+      </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -3184,14 +3714,17 @@
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G30" s="12">
+        <v>7</v>
+      </c>
       <c r="H30" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="6">
         <v>3</v>
       </c>
       <c r="J30" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K30" s="6">
         <v>3</v>
@@ -3200,6 +3733,12 @@
         <v>5</v>
       </c>
       <c r="M30" s="6">
+        <v>3</v>
+      </c>
+      <c r="N30" s="6">
+        <v>6</v>
+      </c>
+      <c r="O30" s="6">
         <v>3</v>
       </c>
     </row>
@@ -3219,7 +3758,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H33" s="6">
         <v>0</v>
       </c>
@@ -3227,15 +3766,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G34" s="12">
+        <v>8</v>
+      </c>
       <c r="H34" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="10">
         <v>4</v>
       </c>
       <c r="J34" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" s="10">
         <v>4</v>
@@ -3257,7 +3799,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H35" s="10">
         <v>9</v>
       </c>
@@ -3275,7 +3817,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H36" s="10">
         <v>5</v>
       </c>
@@ -3293,7 +3835,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H37" s="10">
         <v>2</v>
       </c>
@@ -3311,9 +3853,12 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G38" s="12">
+        <v>9</v>
+      </c>
       <c r="H38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="6">
         <v>4</v>
@@ -3331,13 +3876,19 @@
         <v>4</v>
       </c>
       <c r="N38" s="6">
+        <v>6</v>
+      </c>
+      <c r="O38" s="6">
+        <v>4</v>
+      </c>
+      <c r="P38" s="6">
         <v>7</v>
       </c>
-      <c r="O38" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="Q38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H39" s="6">
         <v>9</v>
       </c>
@@ -3345,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H40" s="6">
         <v>3</v>
       </c>
@@ -3353,7 +3904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H41" s="6">
         <v>3</v>
       </c>
@@ -3361,21 +3912,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G42" s="12">
+        <v>10</v>
+      </c>
       <c r="H42" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="10">
         <v>4</v>
       </c>
       <c r="J42" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" s="10">
         <v>4</v>
       </c>
       <c r="L42" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M42" s="10">
         <v>4</v>
@@ -3395,7 +3949,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H43" s="10">
         <v>9</v>
       </c>
@@ -3413,7 +3967,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H44" s="10">
         <v>2</v>
       </c>
@@ -3431,7 +3985,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H45" s="10">
         <v>2</v>
       </c>
@@ -3449,45 +4003,48 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G46" s="12">
+        <v>11</v>
+      </c>
       <c r="H46" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="6">
         <v>5</v>
       </c>
       <c r="J46" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K46" s="6">
         <v>5</v>
       </c>
       <c r="L46" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M46" s="6">
         <v>5</v>
       </c>
       <c r="N46" s="6">
+        <v>6</v>
+      </c>
+      <c r="O46" s="6">
+        <v>5</v>
+      </c>
+      <c r="P46" s="6">
         <v>7</v>
       </c>
-      <c r="O46" s="6">
-        <v>5</v>
-      </c>
-      <c r="P46" s="6">
+      <c r="Q46" s="6">
+        <v>5</v>
+      </c>
+      <c r="R46" s="6">
         <v>8</v>
       </c>
-      <c r="Q46" s="6">
-        <v>5</v>
-      </c>
-      <c r="R46" s="6">
-        <v>9</v>
-      </c>
       <c r="S46" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H47" s="6">
         <v>9</v>
       </c>
@@ -3495,7 +4052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H48" s="6">
         <v>1</v>
       </c>
@@ -3503,7 +4060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H49" s="6">
         <v>1</v>
       </c>
@@ -3511,7 +4068,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G50" s="12">
+        <v>12</v>
+      </c>
       <c r="H50" s="10">
         <v>2</v>
       </c>
@@ -3519,37 +4079,37 @@
         <v>5</v>
       </c>
       <c r="J50" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K50" s="10">
         <v>5</v>
       </c>
       <c r="L50" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M50" s="10">
         <v>5</v>
       </c>
       <c r="N50" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O50" s="10">
         <v>5</v>
       </c>
       <c r="P50" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q50" s="10">
         <v>5</v>
       </c>
       <c r="R50" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S50" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H51" s="10">
         <v>9</v>
       </c>
@@ -3567,12 +4127,12 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H52" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" s="10">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -3585,12 +4145,12 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:19" x14ac:dyDescent="0.3">
       <c r="H53" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="10">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CD8FEB-BF4E-4491-9E37-54DD414BAA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94E2AB6-BD09-477B-A26D-A59875AEDAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="270" windowWidth="24555" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="585" windowWidth="14400" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -482,6 +482,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,18 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,25 +834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -893,7 +893,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,7 +916,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -978,7 +978,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1001,7 +1001,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1214,14 +1214,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="H20" s="6">
         <v>1</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1253,7 +1253,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1284,40 +1284,40 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="H24" s="6">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="H25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
       <c r="H26" s="6">
         <v>6</v>
       </c>
@@ -1334,14 +1334,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
       <c r="H28" s="6">
         <v>1</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1371,7 +1371,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1391,14 +1391,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="H31" s="6">
         <v>2</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1430,7 +1430,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1453,20 +1453,20 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="H34" s="6">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1512,20 +1512,20 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="H37" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H52" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I52" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.3">
@@ -1720,12 +1720,6 @@
       <c r="I56" s="6">
         <v>3</v>
       </c>
-      <c r="J56" s="6">
-        <v>4</v>
-      </c>
-      <c r="K56" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H57" s="6">
@@ -1740,64 +1734,58 @@
     </row>
     <row r="58" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H58" s="6">
-        <v>107</v>
+        <v>4</v>
+      </c>
+      <c r="I58" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H59" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I59" s="6">
+        <v>1</v>
+      </c>
+      <c r="J59" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H60" s="6">
-        <v>4</v>
-      </c>
-      <c r="I60" s="6">
-        <v>4</v>
-      </c>
-      <c r="J60" s="6">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H61" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H62" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I62" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" s="6">
-        <v>2</v>
-      </c>
-      <c r="K62" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H63" s="6">
-        <v>3</v>
-      </c>
-      <c r="I63" s="6">
-        <v>1</v>
-      </c>
-      <c r="J63" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H64" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64" s="6">
         <v>3</v>
       </c>
       <c r="J64" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K64" s="6">
         <v>3</v>
@@ -1816,60 +1804,60 @@
     </row>
     <row r="66" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H66" s="6">
-        <v>108</v>
+        <v>5</v>
+      </c>
+      <c r="I66" s="6">
+        <v>3</v>
+      </c>
+      <c r="J66" s="6">
+        <v>6</v>
+      </c>
+      <c r="K66" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H67" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H68" s="6">
-        <v>3</v>
-      </c>
-      <c r="I68" s="6">
-        <v>3</v>
-      </c>
-      <c r="J68" s="6">
-        <v>3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H69" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H70" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J70" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H71" s="6">
-        <v>3</v>
-      </c>
-      <c r="I71" s="6">
-        <v>1</v>
-      </c>
-      <c r="J71" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H72" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" s="6">
-        <v>4</v>
-      </c>
-      <c r="J72" s="6">
-        <v>4</v>
-      </c>
-      <c r="K72" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1886,9 +1874,15 @@
     </row>
     <row r="74" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H74" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I74" s="6">
+        <v>4</v>
+      </c>
+      <c r="J74" s="6">
+        <v>4</v>
+      </c>
+      <c r="K74" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1905,60 +1899,60 @@
     </row>
     <row r="76" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H76" s="6">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="I76" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H77" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I77" s="6">
+        <v>1</v>
+      </c>
+      <c r="J77" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H78" s="6">
-        <v>5</v>
-      </c>
-      <c r="I78" s="6">
-        <v>5</v>
-      </c>
-      <c r="J78" s="6">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H79" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H80" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J80" s="6">
         <v>3</v>
-      </c>
-      <c r="K80" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="81" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H81" s="6">
-        <v>3</v>
-      </c>
-      <c r="I81" s="6">
-        <v>1</v>
-      </c>
-      <c r="J81" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H82" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82" s="6">
+        <v>4</v>
+      </c>
+      <c r="J82" s="6">
+        <v>3</v>
+      </c>
+      <c r="K82" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1975,15 +1969,9 @@
     </row>
     <row r="84" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H84" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I84" s="6">
-        <v>4</v>
-      </c>
-      <c r="J84" s="6">
-        <v>7</v>
-      </c>
-      <c r="K84" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2000,52 +1988,58 @@
     </row>
     <row r="86" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H86" s="6">
-        <v>110</v>
+        <v>6</v>
+      </c>
+      <c r="I86" s="6">
+        <v>4</v>
+      </c>
+      <c r="J86" s="6">
+        <v>7</v>
+      </c>
+      <c r="K86" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H87" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I87" s="6">
+        <v>1</v>
+      </c>
+      <c r="J87" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H88" s="6">
-        <v>4</v>
-      </c>
-      <c r="I88" s="6">
-        <v>4</v>
-      </c>
-      <c r="J88" s="6">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H89" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H90" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J90" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H91" s="6">
-        <v>3</v>
-      </c>
-      <c r="I91" s="6">
-        <v>1</v>
-      </c>
-      <c r="J91" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H92" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92" s="6">
         <v>4</v>
@@ -2053,26 +2047,20 @@
     </row>
     <row r="93" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H93" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" s="6">
         <v>1</v>
       </c>
       <c r="J93" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H94" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I94" s="6">
-        <v>4</v>
-      </c>
-      <c r="J94" s="6">
-        <v>6</v>
-      </c>
-      <c r="K94" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2089,7 +2077,7 @@
     </row>
     <row r="96" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H96" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I96" s="6">
         <v>4</v>
@@ -2097,90 +2085,84 @@
     </row>
     <row r="97" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H97" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I97" s="6">
         <v>1</v>
       </c>
       <c r="J97" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H98" s="6">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="I98" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H99" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1</v>
+      </c>
+      <c r="J99" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H100" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I100" s="6">
-        <v>4</v>
-      </c>
-      <c r="J100" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H101" s="6">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H102" s="6">
-        <v>1</v>
-      </c>
-      <c r="I102" s="6">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H103" s="6">
-        <v>3</v>
-      </c>
-      <c r="I103" s="6">
-        <v>1</v>
-      </c>
-      <c r="J103" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H104" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I104" s="6">
+        <v>5</v>
+      </c>
+      <c r="J104" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H105" s="6">
-        <v>3</v>
-      </c>
-      <c r="I105" s="6">
-        <v>1</v>
-      </c>
-      <c r="J105" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H106" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106" s="6">
-        <v>5</v>
-      </c>
-      <c r="J106" s="6">
-        <v>6</v>
-      </c>
-      <c r="K106" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2197,96 +2179,102 @@
     </row>
     <row r="108" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H108" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I108" s="6">
-        <v>5</v>
-      </c>
-      <c r="J108" s="6">
-        <v>8</v>
-      </c>
-      <c r="K108" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H109" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
       </c>
       <c r="J109" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H110" s="6">
-        <v>112</v>
+        <v>5</v>
+      </c>
+      <c r="I110" s="6">
+        <v>5</v>
+      </c>
+      <c r="J110" s="6">
+        <v>6</v>
+      </c>
+      <c r="K110" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H111" s="6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I111" s="6">
+        <v>1</v>
+      </c>
+      <c r="J111" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H112" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I112" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J112" s="6">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K112" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H113" s="6">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="I113" s="6">
+        <v>1</v>
+      </c>
+      <c r="J113" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H114" s="6">
-        <v>2</v>
-      </c>
-      <c r="I114" s="6">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H115" s="6">
-        <v>3</v>
-      </c>
-      <c r="I115" s="6">
-        <v>1</v>
-      </c>
-      <c r="J115" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H116" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I116" s="6">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J116" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H117" s="6">
-        <v>3</v>
-      </c>
-      <c r="I117" s="6">
-        <v>1</v>
-      </c>
-      <c r="J117" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H118" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I118" s="6">
         <v>5</v>
@@ -2310,15 +2298,9 @@
     </row>
     <row r="121" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H121" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I121" s="6">
-        <v>5</v>
-      </c>
-      <c r="J121" s="6">
-        <v>8</v>
-      </c>
-      <c r="K121" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2335,35 +2317,79 @@
     </row>
     <row r="123" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H123" s="6">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="I123" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H124" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I124" s="6">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J124" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H125" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H126" s="6">
         <v>7</v>
       </c>
-      <c r="I125" s="6">
-        <v>1</v>
-      </c>
-      <c r="J125" s="6">
+      <c r="I126" s="6">
+        <v>5</v>
+      </c>
+      <c r="J126" s="6">
+        <v>8</v>
+      </c>
+      <c r="K126" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H127" s="6">
+        <v>6</v>
+      </c>
+      <c r="I127" s="6">
+        <v>1</v>
+      </c>
+      <c r="J127" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H128" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H129" s="6">
+        <v>9</v>
+      </c>
+      <c r="I129" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H130" s="6">
+        <v>7</v>
+      </c>
+      <c r="I130" s="6">
+        <v>1</v>
+      </c>
+      <c r="J130" s="6">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -2380,6 +2406,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2389,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2410,14 +2441,14 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2968,38 +2999,55 @@
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="6">
-        <v>0</v>
-      </c>
-      <c r="G70" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="6">
-        <v>112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="6">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="6">
         <v>13</v>
       </c>
-      <c r="G73" s="6">
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="6">
         <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="6">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3017,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE7D011-54C7-432C-9FCB-8552D6484E24}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="G18" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3375,13 +3423,13 @@
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="12">
         <v>3</v>
       </c>
@@ -3440,13 +3488,13 @@
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="12">
         <v>4</v>
       </c>
@@ -3479,13 +3527,13 @@
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="H19" s="10">
         <v>9</v>
       </c>
@@ -3507,13 +3555,13 @@
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
       <c r="H20" s="10">
         <v>2</v>
       </c>
@@ -3535,13 +3583,13 @@
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="H21" s="10">
         <v>0</v>
       </c>
@@ -3563,13 +3611,13 @@
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="12">
         <v>5</v>
       </c>
@@ -3596,13 +3644,13 @@
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="H23" s="6">
         <v>9</v>
       </c>

--- a/Plan/GameData/EnemySpawnPattern.xlsx
+++ b/Plan/GameData/EnemySpawnPattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\GitHub\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94E2AB6-BD09-477B-A26D-A59875AEDAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DE48B0-B45D-4397-AFF7-7028BA879B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="585" windowWidth="14400" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="480" windowWidth="14400" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern" sheetId="1" r:id="rId1"/>
@@ -482,18 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,6 +511,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,25 +834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -893,7 +893,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,7 +916,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -978,7 +978,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1001,7 +1001,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1214,14 +1214,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="H20" s="6">
         <v>1</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1253,7 +1253,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1284,40 +1284,40 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="H24" s="6">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="H25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="H26" s="6">
         <v>6</v>
       </c>
@@ -1334,14 +1334,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
       <c r="H28" s="6">
         <v>1</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="9">
@@ -1371,7 +1371,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1391,14 +1391,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
       <c r="H31" s="6">
         <v>2</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1430,7 +1430,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1453,20 +1453,20 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
       <c r="H34" s="6">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1512,20 +1512,20 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
       <c r="H37" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="70" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H70" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I70" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="8:11" x14ac:dyDescent="0.3">
@@ -1863,13 +1863,13 @@
     </row>
     <row r="73" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H73" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I73" s="6">
         <v>1</v>
       </c>
       <c r="J73" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="8:11" x14ac:dyDescent="0.3">
@@ -1888,13 +1888,13 @@
     </row>
     <row r="75" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H75" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>
       </c>
       <c r="J75" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="8:11" x14ac:dyDescent="0.3">
@@ -1907,13 +1907,13 @@
     </row>
     <row r="77" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H77" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" s="6">
         <v>1</v>
       </c>
       <c r="J77" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="8:11" x14ac:dyDescent="0.3">
@@ -1958,13 +1958,13 @@
     </row>
     <row r="83" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H83" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
       </c>
       <c r="J83" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="8:11" x14ac:dyDescent="0.3">
@@ -1977,13 +1977,13 @@
     </row>
     <row r="85" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H85" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
       </c>
       <c r="J85" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="8:11" x14ac:dyDescent="0.3">
@@ -2002,13 +2002,13 @@
     </row>
     <row r="87" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H87" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
       </c>
       <c r="J87" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="8:11" x14ac:dyDescent="0.3">
@@ -2144,13 +2144,13 @@
     </row>
     <row r="104" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H104" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I104" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J104" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="8:11" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
     </row>
     <row r="107" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H107" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
       </c>
       <c r="J107" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="8:11" x14ac:dyDescent="0.3">
@@ -2187,13 +2187,13 @@
     </row>
     <row r="109" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H109" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
       </c>
       <c r="J109" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="8:11" x14ac:dyDescent="0.3">
@@ -2212,13 +2212,13 @@
     </row>
     <row r="111" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H111" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
       </c>
       <c r="J111" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="8:11" x14ac:dyDescent="0.3">
@@ -2237,13 +2237,13 @@
     </row>
     <row r="113" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H113" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
       </c>
       <c r="J113" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="8:11" x14ac:dyDescent="0.3">
@@ -2282,13 +2282,13 @@
     </row>
     <row r="119" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H119" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
       </c>
       <c r="J119" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="8:11" x14ac:dyDescent="0.3">
@@ -2325,13 +2325,13 @@
     </row>
     <row r="124" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H124" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I124" s="6">
         <v>1</v>
       </c>
       <c r="J124" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="8:11" x14ac:dyDescent="0.3">
@@ -2390,6 +2390,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:F37"/>
@@ -2406,11 +2411,6 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2422,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56C42D-28EE-4E77-A09C-37CA4ABB2774}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2441,14 +2441,14 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -3423,13 +3423,13 @@
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="12">
         <v>3</v>
       </c>
@@ -3488,13 +3488,13 @@
       <c r="A18" s="6">
         <v>0</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="12">
         <v>4</v>
       </c>
@@ -3527,13 +3527,13 @@
       <c r="A19" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="H19" s="10">
         <v>9</v>
       </c>
@@ -3555,13 +3555,13 @@
       <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="H20" s="10">
         <v>2</v>
       </c>
@@ -3583,13 +3583,13 @@
       <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="H21" s="10">
         <v>0</v>
       </c>
@@ -3611,13 +3611,13 @@
       <c r="A22" s="6">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="12">
         <v>5</v>
       </c>
@@ -3644,13 +3644,13 @@
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="H23" s="6">
         <v>9</v>
       </c>
